--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_5_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2385274.248166849</v>
+        <v>-2386980.6485668</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1369218.879268443</v>
+        <v>1369218.879268444</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,10 +659,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -674,10 +674,10 @@
         <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
-        <v>226.6141516527638</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>168.1666138174382</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -701,7 +701,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -710,10 +710,10 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -741,16 +741,16 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
         <v>112.2354442364965</v>
@@ -759,7 +759,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -792,19 +792,19 @@
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>156.3470246206947</v>
       </c>
       <c r="W3" t="n">
-        <v>119.1228491011182</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -820,22 +820,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>0</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -896,19 +896,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>213.3370800007135</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -1020,10 +1020,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
@@ -1032,16 +1032,16 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>3.833957768458675</v>
       </c>
       <c r="X6" t="n">
-        <v>165.4493372338499</v>
+        <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1072,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1108,7 +1108,7 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>175.0426595591497</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1190,13 +1190,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>33.60023339142363</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1215,10 +1215,10 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1227,13 +1227,13 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>20.07165222581214</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,19 +1257,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>35.00246782997241</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1278,7 +1278,7 @@
         <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1342,13 +1342,13 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>39.82778746869526</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>108.1960350243787</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>366.2068480618378</v>
+        <v>366.2068480618377</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>348.7458981693648</v>
       </c>
       <c r="D11" t="n">
-        <v>338.1560480190402</v>
+        <v>338.1560480190401</v>
       </c>
       <c r="E11" t="n">
-        <v>365.403376470619</v>
+        <v>365.4033764706189</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>390.3490521400686</v>
       </c>
       <c r="G11" t="n">
-        <v>396.4153910239923</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>298.7748444845325</v>
+        <v>298.7748444845324</v>
       </c>
       <c r="I11" t="n">
-        <v>102.9513911963142</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>138.7065345151212</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>196.2364111887023</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>234.6298310750337</v>
+        <v>86.27712496569313</v>
       </c>
       <c r="V11" t="n">
-        <v>311.2252648684922</v>
+        <v>311.2252648684921</v>
       </c>
       <c r="W11" t="n">
-        <v>89.1464913917325</v>
+        <v>332.7139751157702</v>
       </c>
       <c r="X11" t="n">
-        <v>353.2041070768263</v>
+        <v>353.2041070768262</v>
       </c>
       <c r="Y11" t="n">
         <v>369.7109450544108</v>
@@ -1534,16 +1534,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>129.9069690449264</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>150.4052127086366</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>136.286723986529</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>113.160111445569</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>189.0380777684211</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>108.4849253646592</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>269.7342844976746</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>235.6106497221852</v>
       </c>
       <c r="W13" t="n">
-        <v>269.9960047349483</v>
+        <v>269.9960047349482</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>209.1826617873943</v>
       </c>
       <c r="Y13" t="n">
-        <v>104.2154264178309</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1607,25 +1607,25 @@
         <v>360.2732286622443</v>
       </c>
       <c r="C14" t="n">
-        <v>342.8122787697713</v>
+        <v>342.8122787697712</v>
       </c>
       <c r="D14" t="n">
-        <v>182.4494753913784</v>
+        <v>185.4381199974131</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>359.4697570710255</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>384.4154327404751</v>
       </c>
       <c r="G14" t="n">
-        <v>390.4817716243988</v>
+        <v>390.4817716243987</v>
       </c>
       <c r="H14" t="n">
-        <v>292.841225084939</v>
+        <v>292.8412250849389</v>
       </c>
       <c r="I14" t="n">
-        <v>97.01777179672069</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.7729151155277</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>190.3027917891088</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>228.6962116754403</v>
+        <v>228.6962116754402</v>
       </c>
       <c r="V14" t="n">
-        <v>305.2916454688987</v>
+        <v>305.2916454688986</v>
       </c>
       <c r="W14" t="n">
-        <v>326.7803557161768</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>347.2704876772328</v>
+        <v>347.2704876772327</v>
       </c>
       <c r="Y14" t="n">
         <v>363.7773256548173</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>157.371367180701</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>144.7862080973915</v>
       </c>
       <c r="D16" t="n">
-        <v>126.1548600169761</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1777,13 +1777,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>144.4715933090431</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>34.30784123154317</v>
       </c>
       <c r="I16" t="n">
-        <v>101.1496688044085</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>107.2264920459755</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>200.9611279484604</v>
       </c>
       <c r="U16" t="n">
-        <v>75.4202060028676</v>
+        <v>263.8006650980811</v>
       </c>
       <c r="V16" t="n">
         <v>229.6770303225917</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>264.0623853353547</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>196.1240403508585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1853,16 +1853,16 @@
         <v>299.8925475350543</v>
       </c>
       <c r="F17" t="n">
-        <v>324.8382232045039</v>
+        <v>324.838223204504</v>
       </c>
       <c r="G17" t="n">
         <v>330.9045620884276</v>
       </c>
       <c r="H17" t="n">
-        <v>233.2640155489677</v>
+        <v>233.2640155489678</v>
       </c>
       <c r="I17" t="n">
-        <v>37.44056226074945</v>
+        <v>37.44056226074952</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.19570557955646</v>
+        <v>73.19570557955655</v>
       </c>
       <c r="T17" t="n">
         <v>130.7255822531376</v>
       </c>
       <c r="U17" t="n">
-        <v>169.119002139469</v>
+        <v>169.1190021394691</v>
       </c>
       <c r="V17" t="n">
-        <v>245.7144359329274</v>
+        <v>245.7144359329275</v>
       </c>
       <c r="W17" t="n">
-        <v>267.2031461802055</v>
+        <v>267.2031461802056</v>
       </c>
       <c r="X17" t="n">
-        <v>287.6932781412615</v>
+        <v>287.6932781412616</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.2001161188461</v>
+        <v>304.2001161188462</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.79415764472979</v>
+        <v>97.79415764472986</v>
       </c>
       <c r="C19" t="n">
-        <v>85.20899856142033</v>
+        <v>10.32441566059497</v>
       </c>
       <c r="D19" t="n">
-        <v>66.57765048100485</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.39614010936167</v>
+        <v>64.39614010936174</v>
       </c>
       <c r="F19" t="n">
-        <v>63.38322548572374</v>
+        <v>63.38322548572381</v>
       </c>
       <c r="G19" t="n">
-        <v>14.20804544220648</v>
+        <v>84.89438377307192</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>70.77589505096432</v>
       </c>
       <c r="I19" t="n">
-        <v>41.5724592684373</v>
+        <v>41.57245926843737</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.64928251000425</v>
+        <v>47.64928251000433</v>
       </c>
       <c r="S19" t="n">
         <v>123.5272488328564</v>
@@ -2059,16 +2059,16 @@
         <v>204.22345556211</v>
       </c>
       <c r="V19" t="n">
-        <v>170.0998207866205</v>
+        <v>170.0998207866206</v>
       </c>
       <c r="W19" t="n">
-        <v>204.4851757993835</v>
+        <v>204.4851757993836</v>
       </c>
       <c r="X19" t="n">
         <v>143.6718328518297</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.5468308148873</v>
+        <v>136.5468308148874</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>330.9045620884276</v>
       </c>
       <c r="H20" t="n">
-        <v>233.2640155489677</v>
+        <v>233.2640155489678</v>
       </c>
       <c r="I20" t="n">
-        <v>37.44056226074946</v>
+        <v>37.44056226074949</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.19570557955649</v>
+        <v>73.19570557955652</v>
       </c>
       <c r="T20" t="n">
         <v>130.7255822531376</v>
@@ -2141,13 +2141,13 @@
         <v>245.7144359329274</v>
       </c>
       <c r="W20" t="n">
-        <v>267.2031461802058</v>
+        <v>267.2031461802055</v>
       </c>
       <c r="X20" t="n">
         <v>287.6932781412615</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.2001161188461</v>
+        <v>304.2001161188462</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.79415764472982</v>
+        <v>97.79415764472984</v>
       </c>
       <c r="C22" t="n">
-        <v>85.20899856142036</v>
+        <v>85.20899856142037</v>
       </c>
       <c r="D22" t="n">
-        <v>66.57765048100488</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>64.3961401093617</v>
+        <v>52.89478269426005</v>
       </c>
       <c r="F22" t="n">
-        <v>63.38322548572377</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>84.89438377307188</v>
+        <v>84.89438377307189</v>
       </c>
       <c r="H22" t="n">
-        <v>70.77589505096428</v>
+        <v>70.77589505096429</v>
       </c>
       <c r="I22" t="n">
-        <v>41.57245926843733</v>
+        <v>41.57245926843734</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.64928251000428</v>
+        <v>47.6492825100043</v>
       </c>
       <c r="S22" t="n">
         <v>123.5272488328564</v>
@@ -2296,7 +2296,7 @@
         <v>204.22345556211</v>
       </c>
       <c r="V22" t="n">
-        <v>28.63758740479106</v>
+        <v>170.0998207866205</v>
       </c>
       <c r="W22" t="n">
         <v>204.4851757993835</v>
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.6960191262731</v>
+        <v>300.6960191262732</v>
       </c>
       <c r="C23" t="n">
         <v>283.2350692338001</v>
       </c>
       <c r="D23" t="n">
-        <v>272.6452190834755</v>
+        <v>272.6452190834756</v>
       </c>
       <c r="E23" t="n">
-        <v>299.8925475350543</v>
+        <v>299.8925475350544</v>
       </c>
       <c r="F23" t="n">
-        <v>324.8382232045039</v>
+        <v>324.8382232045041</v>
       </c>
       <c r="G23" t="n">
-        <v>330.9045620884276</v>
+        <v>330.9045620884277</v>
       </c>
       <c r="H23" t="n">
-        <v>233.2640155489677</v>
+        <v>233.2640155489678</v>
       </c>
       <c r="I23" t="n">
-        <v>37.44056226074946</v>
+        <v>37.44056226074954</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2363,28 +2363,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>-2.250999386887997e-12</v>
       </c>
       <c r="S23" t="n">
-        <v>73.19570557955649</v>
+        <v>73.19570557955656</v>
       </c>
       <c r="T23" t="n">
-        <v>130.7255822531376</v>
+        <v>130.7255822531377</v>
       </c>
       <c r="U23" t="n">
-        <v>169.1190021394693</v>
+        <v>169.1190021394691</v>
       </c>
       <c r="V23" t="n">
-        <v>245.7144359329274</v>
+        <v>245.7144359329275</v>
       </c>
       <c r="W23" t="n">
-        <v>267.2031461802055</v>
+        <v>267.2031461802056</v>
       </c>
       <c r="X23" t="n">
-        <v>287.6932781412615</v>
+        <v>287.6932781412617</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.2001161188461</v>
+        <v>304.2001161188462</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.79415764472982</v>
+        <v>97.79415764472989</v>
       </c>
       <c r="C25" t="n">
-        <v>85.20899856142036</v>
+        <v>85.20899856142043</v>
       </c>
       <c r="D25" t="n">
-        <v>66.57765048100488</v>
+        <v>66.57765048100495</v>
       </c>
       <c r="E25" t="n">
-        <v>64.3961401093617</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.38322548572377</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>84.89438377307188</v>
+        <v>84.89438377307195</v>
       </c>
       <c r="H25" t="n">
-        <v>70.77589505096428</v>
+        <v>70.77589505096435</v>
       </c>
       <c r="I25" t="n">
-        <v>41.57245926843733</v>
+        <v>41.5724592684374</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.64928251000428</v>
+        <v>33.96641472325832</v>
       </c>
       <c r="S25" t="n">
-        <v>123.5272488328564</v>
+        <v>123.5272488328565</v>
       </c>
       <c r="T25" t="n">
-        <v>141.3839184124893</v>
+        <v>141.3839184124894</v>
       </c>
       <c r="U25" t="n">
         <v>204.22345556211</v>
       </c>
       <c r="V25" t="n">
-        <v>165.1844182196784</v>
+        <v>170.0998207866206</v>
       </c>
       <c r="W25" t="n">
-        <v>204.4851757993835</v>
+        <v>204.4851757993836</v>
       </c>
       <c r="X25" t="n">
         <v>143.6718328518297</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>136.5468308148874</v>
       </c>
     </row>
     <row r="26">
@@ -2600,7 +2600,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>1.600600746094955</v>
       </c>
       <c r="S26" t="n">
         <v>67.26208617996295</v>
@@ -2609,13 +2609,13 @@
         <v>124.7919628535441</v>
       </c>
       <c r="U26" t="n">
-        <v>251.1568246766765</v>
+        <v>250.589072987682</v>
       </c>
       <c r="V26" t="n">
         <v>239.7808165333339</v>
       </c>
       <c r="W26" t="n">
-        <v>262.3023758377124</v>
+        <v>261.269526780612</v>
       </c>
       <c r="X26" t="n">
         <v>281.759658741668</v>
@@ -2953,22 +2953,22 @@
         <v>85.2089985614203</v>
       </c>
       <c r="D31" t="n">
-        <v>66.57765048100482</v>
+        <v>52.8947826942614</v>
       </c>
       <c r="E31" t="n">
-        <v>64.39614010936164</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.38322548572371</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>84.89438377307182</v>
       </c>
       <c r="H31" t="n">
         <v>70.77589505096421</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.57245926843729</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3013,7 +3013,7 @@
         <v>204.4851757993835</v>
       </c>
       <c r="X31" t="n">
-        <v>128.6764425115102</v>
+        <v>143.6718328518296</v>
       </c>
       <c r="Y31" t="n">
         <v>136.5468308148872</v>
@@ -3026,10 +3026,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>294.7623997266795</v>
       </c>
       <c r="C32" t="n">
-        <v>277.3014498342066</v>
+        <v>277.3014498342065</v>
       </c>
       <c r="D32" t="n">
         <v>266.7115996838819</v>
@@ -3047,7 +3047,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I32" t="n">
-        <v>31.50694286115593</v>
+        <v>31.50694286115589</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,28 +3074,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.032849057101375</v>
+        <v>1.032849057101825</v>
       </c>
       <c r="S32" t="n">
-        <v>67.26208617996295</v>
+        <v>67.26208617996289</v>
       </c>
       <c r="T32" t="n">
-        <v>124.7919628535441</v>
+        <v>124.791962853544</v>
       </c>
       <c r="U32" t="n">
         <v>163.1853827398755</v>
       </c>
       <c r="V32" t="n">
-        <v>239.7808165333339</v>
+        <v>239.7808165333338</v>
       </c>
       <c r="W32" t="n">
         <v>261.269526780612</v>
       </c>
       <c r="X32" t="n">
-        <v>281.759658741668</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.2664967192526</v>
+        <v>298.2664967192525</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.86053824513627</v>
+        <v>91.86053824513623</v>
       </c>
       <c r="C34" t="n">
-        <v>79.27537916182681</v>
+        <v>79.27537916182676</v>
       </c>
       <c r="D34" t="n">
-        <v>60.64403108141133</v>
+        <v>60.64403108141128</v>
       </c>
       <c r="E34" t="n">
-        <v>58.46252070976814</v>
+        <v>58.4625207097681</v>
       </c>
       <c r="F34" t="n">
-        <v>57.44960608613022</v>
+        <v>57.44960608613017</v>
       </c>
       <c r="G34" t="n">
-        <v>78.96076437347833</v>
+        <v>78.96076437347828</v>
       </c>
       <c r="H34" t="n">
-        <v>64.84227565137073</v>
+        <v>64.84227565137068</v>
       </c>
       <c r="I34" t="n">
-        <v>35.63883986884379</v>
+        <v>35.63883986884375</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71566311041073</v>
+        <v>41.71566311041069</v>
       </c>
       <c r="S34" t="n">
         <v>117.5936294332628</v>
@@ -3244,16 +3244,16 @@
         <v>198.2898361625164</v>
       </c>
       <c r="V34" t="n">
-        <v>164.166201387027</v>
+        <v>164.1662013870269</v>
       </c>
       <c r="W34" t="n">
-        <v>198.55155639979</v>
+        <v>198.5515563997899</v>
       </c>
       <c r="X34" t="n">
         <v>137.7382134522361</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.6132114152938</v>
+        <v>130.6132114152937</v>
       </c>
     </row>
     <row r="35">
@@ -3263,16 +3263,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.7623997266795</v>
+        <v>294.7623997266796</v>
       </c>
       <c r="C35" t="n">
         <v>277.3014498342066</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7115996838819</v>
+        <v>266.711599683882</v>
       </c>
       <c r="E35" t="n">
-        <v>293.9589281354607</v>
+        <v>293.9589281354608</v>
       </c>
       <c r="F35" t="n">
         <v>318.9046038049104</v>
@@ -3281,7 +3281,7 @@
         <v>324.970942688834</v>
       </c>
       <c r="H35" t="n">
-        <v>227.3303961493742</v>
+        <v>227.3303961493743</v>
       </c>
       <c r="I35" t="n">
         <v>31.50694286115596</v>
@@ -3311,10 +3311,10 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>-1.350599632132798e-12</v>
       </c>
       <c r="S35" t="n">
-        <v>67.26208617996296</v>
+        <v>67.26208617996298</v>
       </c>
       <c r="T35" t="n">
         <v>124.7919628535441</v>
@@ -3323,7 +3323,7 @@
         <v>163.1853827398755</v>
       </c>
       <c r="V35" t="n">
-        <v>239.7808165333352</v>
+        <v>239.7808165333339</v>
       </c>
       <c r="W35" t="n">
         <v>261.269526780612</v>
@@ -3363,7 +3363,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I36" t="n">
-        <v>45.91520282390999</v>
+        <v>45.91520282390998</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.74724517565433</v>
+        <v>21.7472451756543</v>
       </c>
       <c r="S36" t="n">
         <v>148.2253550316743</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.86053824513627</v>
+        <v>91.86053824513628</v>
       </c>
       <c r="C37" t="n">
-        <v>79.27537916182681</v>
+        <v>79.27537916182682</v>
       </c>
       <c r="D37" t="n">
-        <v>60.64403108141133</v>
+        <v>60.64403108141134</v>
       </c>
       <c r="E37" t="n">
-        <v>58.46252070976814</v>
+        <v>58.46252070976816</v>
       </c>
       <c r="F37" t="n">
-        <v>57.44960608613022</v>
+        <v>57.44960608613023</v>
       </c>
       <c r="G37" t="n">
-        <v>78.96076437347833</v>
+        <v>78.96076437347834</v>
       </c>
       <c r="H37" t="n">
         <v>64.84227565137073</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71566311041075</v>
+        <v>41.71566311041076</v>
       </c>
       <c r="S37" t="n">
-        <v>117.5936294332628</v>
+        <v>117.5936294332629</v>
       </c>
       <c r="T37" t="n">
-        <v>135.4502990128957</v>
+        <v>135.4502990128958</v>
       </c>
       <c r="U37" t="n">
-        <v>198.2898361625164</v>
+        <v>198.2898361625165</v>
       </c>
       <c r="V37" t="n">
         <v>164.166201387027</v>
@@ -3487,7 +3487,7 @@
         <v>198.55155639979</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7382134522361</v>
+        <v>137.7382134522362</v>
       </c>
       <c r="Y37" t="n">
         <v>130.6132114152938</v>
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>294.7623997266796</v>
+        <v>294.7623997266795</v>
       </c>
       <c r="C38" t="n">
-        <v>277.3014498342066</v>
+        <v>277.3014498342064</v>
       </c>
       <c r="D38" t="n">
-        <v>266.711599683882</v>
+        <v>266.7115996838819</v>
       </c>
       <c r="E38" t="n">
-        <v>293.9589281354608</v>
+        <v>293.9589281354607</v>
       </c>
       <c r="F38" t="n">
         <v>318.9046038049104</v>
@@ -3518,10 +3518,10 @@
         <v>324.970942688834</v>
       </c>
       <c r="H38" t="n">
-        <v>227.3303961493743</v>
+        <v>227.3303961493742</v>
       </c>
       <c r="I38" t="n">
-        <v>31.50694286115596</v>
+        <v>31.50694286115593</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3551,16 +3551,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.26208617996298</v>
+        <v>67.26208617996292</v>
       </c>
       <c r="T38" t="n">
-        <v>124.7919628535441</v>
+        <v>124.791962853544</v>
       </c>
       <c r="U38" t="n">
-        <v>163.1853827398755</v>
+        <v>163.1853827398754</v>
       </c>
       <c r="V38" t="n">
-        <v>239.7808165333339</v>
+        <v>239.7808165333338</v>
       </c>
       <c r="W38" t="n">
         <v>261.269526780612</v>
@@ -3569,7 +3569,7 @@
         <v>281.759658741668</v>
       </c>
       <c r="Y38" t="n">
-        <v>298.2664967192526</v>
+        <v>298.2664967192525</v>
       </c>
     </row>
     <row r="39">
@@ -3600,7 +3600,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I39" t="n">
-        <v>45.91520282390998</v>
+        <v>45.91520282391</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.7472451756543</v>
+        <v>21.74724517565434</v>
       </c>
       <c r="S39" t="n">
         <v>148.2253550316743</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.86053824513628</v>
+        <v>91.86053824513621</v>
       </c>
       <c r="C40" t="n">
-        <v>79.27537916182682</v>
+        <v>79.27537916182675</v>
       </c>
       <c r="D40" t="n">
-        <v>60.64403108141134</v>
+        <v>60.64403108141127</v>
       </c>
       <c r="E40" t="n">
-        <v>58.46252070976816</v>
+        <v>58.46252070976809</v>
       </c>
       <c r="F40" t="n">
-        <v>57.44960608613023</v>
+        <v>57.44960608613016</v>
       </c>
       <c r="G40" t="n">
-        <v>78.96076437347834</v>
+        <v>78.96076437347827</v>
       </c>
       <c r="H40" t="n">
-        <v>64.84227565137073</v>
+        <v>64.84227565137067</v>
       </c>
       <c r="I40" t="n">
-        <v>35.6388398688438</v>
+        <v>35.63883986884375</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,28 +3706,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71566311041076</v>
+        <v>41.71566311041071</v>
       </c>
       <c r="S40" t="n">
-        <v>117.5936294332629</v>
+        <v>117.5936294332628</v>
       </c>
       <c r="T40" t="n">
-        <v>135.4502990128958</v>
+        <v>135.4502990128957</v>
       </c>
       <c r="U40" t="n">
-        <v>198.2898361625165</v>
+        <v>198.2898361625164</v>
       </c>
       <c r="V40" t="n">
-        <v>164.166201387027</v>
+        <v>164.1662013870269</v>
       </c>
       <c r="W40" t="n">
-        <v>198.55155639979</v>
+        <v>198.5515563997899</v>
       </c>
       <c r="X40" t="n">
-        <v>137.7382134522362</v>
+        <v>137.7382134522361</v>
       </c>
       <c r="Y40" t="n">
-        <v>130.6132114152938</v>
+        <v>130.6132114152937</v>
       </c>
     </row>
     <row r="41">
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>294.7623997266796</v>
+        <v>294.7623997266795</v>
       </c>
       <c r="C41" t="n">
-        <v>277.3014498342066</v>
+        <v>277.3014498342065</v>
       </c>
       <c r="D41" t="n">
-        <v>266.711599683882</v>
+        <v>266.7115996838819</v>
       </c>
       <c r="E41" t="n">
-        <v>293.9589281354608</v>
+        <v>293.9589281354607</v>
       </c>
       <c r="F41" t="n">
         <v>318.9046038049104</v>
@@ -3755,10 +3755,10 @@
         <v>324.970942688834</v>
       </c>
       <c r="H41" t="n">
-        <v>227.3303961493743</v>
+        <v>227.3303961493742</v>
       </c>
       <c r="I41" t="n">
-        <v>31.50694286115596</v>
+        <v>31.50694286115595</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.26208617996298</v>
+        <v>67.26208617996294</v>
       </c>
       <c r="T41" t="n">
-        <v>124.7919628535441</v>
+        <v>124.791962853544</v>
       </c>
       <c r="U41" t="n">
         <v>163.1853827398755</v>
       </c>
       <c r="V41" t="n">
-        <v>239.7808165333339</v>
+        <v>239.7808165333338</v>
       </c>
       <c r="W41" t="n">
         <v>261.269526780612</v>
       </c>
       <c r="X41" t="n">
-        <v>281.7596587416683</v>
+        <v>281.759658741668</v>
       </c>
       <c r="Y41" t="n">
-        <v>298.2664967192526</v>
+        <v>298.2664967192525</v>
       </c>
     </row>
     <row r="42">
@@ -3837,7 +3837,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I42" t="n">
-        <v>45.91520282390998</v>
+        <v>45.91520282391</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.7472451756543</v>
+        <v>21.74724517565434</v>
       </c>
       <c r="S42" t="n">
         <v>148.2253550316743</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.86053824513628</v>
+        <v>91.86053824513623</v>
       </c>
       <c r="C43" t="n">
-        <v>79.27537916182682</v>
+        <v>79.27537916182676</v>
       </c>
       <c r="D43" t="n">
-        <v>60.64403108141134</v>
+        <v>60.64403108141128</v>
       </c>
       <c r="E43" t="n">
-        <v>58.46252070976816</v>
+        <v>58.4625207097681</v>
       </c>
       <c r="F43" t="n">
-        <v>57.44960608613023</v>
+        <v>57.44960608613017</v>
       </c>
       <c r="G43" t="n">
-        <v>78.96076437347834</v>
+        <v>78.96076437347828</v>
       </c>
       <c r="H43" t="n">
-        <v>64.84227565137073</v>
+        <v>64.84227565137068</v>
       </c>
       <c r="I43" t="n">
-        <v>35.6388398688438</v>
+        <v>35.63883986884376</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71566311041076</v>
+        <v>41.71566311041072</v>
       </c>
       <c r="S43" t="n">
-        <v>117.5936294332629</v>
+        <v>117.5936294332628</v>
       </c>
       <c r="T43" t="n">
-        <v>135.4502990128958</v>
+        <v>135.4502990128957</v>
       </c>
       <c r="U43" t="n">
-        <v>198.2898361625165</v>
+        <v>198.2898361625164</v>
       </c>
       <c r="V43" t="n">
-        <v>164.166201387027</v>
+        <v>164.1662013870269</v>
       </c>
       <c r="W43" t="n">
-        <v>198.55155639979</v>
+        <v>198.5515563997899</v>
       </c>
       <c r="X43" t="n">
-        <v>137.7382134522362</v>
+        <v>137.7382134522361</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.6132114152938</v>
+        <v>130.6132114152937</v>
       </c>
     </row>
     <row r="44">
@@ -3995,7 +3995,7 @@
         <v>227.3303961493742</v>
       </c>
       <c r="I44" t="n">
-        <v>31.50694286115592</v>
+        <v>31.50694286115598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.26208617996292</v>
+        <v>67.26208617996296</v>
       </c>
       <c r="T44" t="n">
-        <v>124.7919628535454</v>
+        <v>124.791962853544</v>
       </c>
       <c r="U44" t="n">
         <v>163.1853827398755</v>
@@ -4074,7 +4074,7 @@
         <v>100.0384876861059</v>
       </c>
       <c r="I45" t="n">
-        <v>45.91520282390998</v>
+        <v>45.91520282391</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.7472451756543</v>
+        <v>21.74724517565434</v>
       </c>
       <c r="S45" t="n">
         <v>148.2253550316743</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.86053824513624</v>
+        <v>91.86053824513625</v>
       </c>
       <c r="C46" t="n">
-        <v>79.27537916182678</v>
+        <v>79.27537916182679</v>
       </c>
       <c r="D46" t="n">
-        <v>60.6440310814113</v>
+        <v>60.64403108141131</v>
       </c>
       <c r="E46" t="n">
-        <v>58.46252070976811</v>
+        <v>58.46252070976813</v>
       </c>
       <c r="F46" t="n">
-        <v>57.44960608613019</v>
+        <v>57.4496060861302</v>
       </c>
       <c r="G46" t="n">
-        <v>78.9607643734783</v>
+        <v>78.96076437347831</v>
       </c>
       <c r="H46" t="n">
-        <v>64.8422756513707</v>
+        <v>64.84227565137071</v>
       </c>
       <c r="I46" t="n">
-        <v>35.63883986884376</v>
+        <v>35.63883986884379</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71566311041073</v>
+        <v>41.71566311041074</v>
       </c>
       <c r="S46" t="n">
         <v>117.5936294332628</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="C2" t="n">
-        <v>495.259035872464</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D2" t="n">
-        <v>495.259035872464</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="E2" t="n">
-        <v>495.259035872464</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F2" t="n">
-        <v>488.3135351232606</v>
+        <v>216.6737094609055</v>
       </c>
       <c r="G2" t="n">
-        <v>472.856224501912</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="H2" t="n">
-        <v>243.9530410142718</v>
+        <v>201.2163988395569</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T2" t="n">
-        <v>738.7078125165641</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="V2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="W2" t="n">
-        <v>738.7078125165641</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y2" t="n">
-        <v>495.259035872464</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>428.1192463369997</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="C3" t="n">
-        <v>428.1192463369997</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="D3" t="n">
-        <v>279.1848366757484</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="E3" t="n">
-        <v>279.1848366757484</v>
+        <v>418.6697947459187</v>
       </c>
       <c r="F3" t="n">
-        <v>132.6502787026334</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G3" t="n">
-        <v>132.6502787026334</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I3" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4416,16 +4416,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>894.6625969973069</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="P3" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
@@ -4440,19 +4440,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="W3" t="n">
-        <v>843.7310453074865</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="X3" t="n">
-        <v>635.8795451019537</v>
+        <v>577.9072497513741</v>
       </c>
       <c r="Y3" t="n">
-        <v>428.1192463369997</v>
+        <v>577.9072497513741</v>
       </c>
     </row>
     <row r="4">
@@ -4468,19 +4468,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>728.6161971483371</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C5" t="n">
-        <v>485.167420504237</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D5" t="n">
-        <v>485.167420504237</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E5" t="n">
-        <v>241.7186438601369</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F5" t="n">
-        <v>234.7731431109335</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4592,25 +4592,25 @@
         <v>953.9655401424092</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U5" t="n">
-        <v>728.6161971483371</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V5" t="n">
-        <v>728.6161971483371</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W5" t="n">
-        <v>728.6161971483371</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X5" t="n">
-        <v>728.6161971483371</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y5" t="n">
-        <v>728.6161971483371</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="6">
@@ -4620,19 +4620,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="C6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="D6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="E6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="F6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="G6" t="n">
         <v>20.03527576299844</v>
@@ -4647,13 +4647,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M6" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N6" t="n">
         <v>542.809531908403</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T6" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U6" t="n">
-        <v>533.6469426057913</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V6" t="n">
-        <v>533.6469426057913</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W6" t="n">
-        <v>533.6469426057913</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="X6" t="n">
-        <v>366.5263999453368</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="Y6" t="n">
-        <v>158.7661011803829</v>
+        <v>20.03527576299844</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I7" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J7" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4741,34 +4741,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>525.1941863946997</v>
+        <v>467.067986854209</v>
       </c>
       <c r="C8" t="n">
-        <v>525.1941863946997</v>
+        <v>467.067986854209</v>
       </c>
       <c r="D8" t="n">
-        <v>281.7454097505996</v>
+        <v>467.067986854209</v>
       </c>
       <c r="E8" t="n">
-        <v>281.7454097505996</v>
+        <v>223.6192102101089</v>
       </c>
       <c r="F8" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V8" t="n">
-        <v>768.6429630387997</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W8" t="n">
-        <v>525.1941863946997</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X8" t="n">
-        <v>525.1941863946997</v>
+        <v>710.516763498309</v>
       </c>
       <c r="Y8" t="n">
-        <v>525.1941863946997</v>
+        <v>710.516763498309</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4857,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>347.7274039646085</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="C9" t="n">
-        <v>347.7274039646085</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="D9" t="n">
-        <v>198.7929943033573</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="E9" t="n">
-        <v>39.55553929790176</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="F9" t="n">
-        <v>39.55553929790176</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="G9" t="n">
-        <v>39.55553929790176</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>39.55553929790176</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>656.0584510084244</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O9" t="n">
         <v>894.6625969973069</v>
@@ -4905,28 +4905,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>790.6398109613051</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>790.6398109613051</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U9" t="n">
-        <v>790.6398109613051</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V9" t="n">
-        <v>555.4877027295624</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="W9" t="n">
-        <v>555.4877027295624</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="X9" t="n">
-        <v>555.4877027295624</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="Y9" t="n">
-        <v>347.7274039646085</v>
+        <v>223.7040404982626</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="C10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="D10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="E10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="F10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="G10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="H10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="I10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="J10" t="n">
-        <v>19.28114311021272</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>113.583345248266</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="Y10" t="n">
-        <v>113.583345248266</v>
+        <v>41.77557929797318</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1590.272500370173</v>
+        <v>1832.422165106664</v>
       </c>
       <c r="C11" t="n">
-        <v>1590.272500370173</v>
+        <v>1480.153581097205</v>
       </c>
       <c r="D11" t="n">
-        <v>1248.700734694374</v>
+        <v>1138.581815421407</v>
       </c>
       <c r="E11" t="n">
-        <v>879.6064150270822</v>
+        <v>769.4874957541151</v>
       </c>
       <c r="F11" t="n">
-        <v>879.6064150270822</v>
+        <v>375.1955238954595</v>
       </c>
       <c r="G11" t="n">
-        <v>479.1868281341607</v>
+        <v>375.1955238954595</v>
       </c>
       <c r="H11" t="n">
-        <v>177.3940559275624</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="I11" t="n">
         <v>73.40275168886116</v>
       </c>
       <c r="J11" t="n">
-        <v>259.9016362724442</v>
+        <v>259.9016362724435</v>
       </c>
       <c r="K11" t="n">
-        <v>660.1599236624256</v>
+        <v>660.1599236624249</v>
       </c>
       <c r="L11" t="n">
         <v>1208.992349970758</v>
@@ -5066,25 +5066,25 @@
         <v>3670.137584443058</v>
       </c>
       <c r="S11" t="n">
-        <v>3530.029973821724</v>
+        <v>3670.137584443058</v>
       </c>
       <c r="T11" t="n">
-        <v>3331.811376661418</v>
+        <v>3670.137584443058</v>
       </c>
       <c r="U11" t="n">
-        <v>3094.811547292697</v>
+        <v>3582.9889733666</v>
       </c>
       <c r="V11" t="n">
-        <v>2780.442592880079</v>
+        <v>3268.620018953982</v>
       </c>
       <c r="W11" t="n">
-        <v>2690.395631878329</v>
+        <v>2932.54529661482</v>
       </c>
       <c r="X11" t="n">
-        <v>2333.623806548201</v>
+        <v>2575.773471284692</v>
       </c>
       <c r="Y11" t="n">
-        <v>1960.178407503342</v>
+        <v>2202.328072239833</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J12" t="n">
-        <v>73.40275168886116</v>
+        <v>190.7868300185745</v>
       </c>
       <c r="K12" t="n">
-        <v>400.6516813300653</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L12" t="n">
-        <v>628.6583163967148</v>
+        <v>652.3347850250312</v>
       </c>
       <c r="M12" t="n">
-        <v>1265.783825806936</v>
+        <v>1289.460294435253</v>
       </c>
       <c r="N12" t="n">
-        <v>1460.930214412464</v>
+        <v>1484.60668304078</v>
       </c>
       <c r="O12" t="n">
         <v>2007.15493593019</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>494.2097271839036</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="C13" t="n">
-        <v>494.2097271839036</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="D13" t="n">
-        <v>494.2097271839036</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="E13" t="n">
-        <v>362.9905665324628</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="F13" t="n">
-        <v>362.9905665324628</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="G13" t="n">
-        <v>211.0661092510117</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="H13" t="n">
         <v>73.40275168886116</v>
@@ -5203,13 +5203,13 @@
         <v>189.497754448459</v>
       </c>
       <c r="L13" t="n">
-        <v>389.0101729911325</v>
+        <v>389.0101729911327</v>
       </c>
       <c r="M13" t="n">
-        <v>608.8677478767988</v>
+        <v>608.8677478767991</v>
       </c>
       <c r="N13" t="n">
-        <v>829.3212626778975</v>
+        <v>829.3212626778976</v>
       </c>
       <c r="O13" t="n">
         <v>1018.178493156264</v>
@@ -5221,28 +5221,28 @@
         <v>1177.451767958418</v>
       </c>
       <c r="R13" t="n">
-        <v>1063.148625084106</v>
+        <v>1177.451767958418</v>
       </c>
       <c r="S13" t="n">
-        <v>872.2010717826705</v>
+        <v>1177.451767958418</v>
       </c>
       <c r="T13" t="n">
-        <v>872.2010717826705</v>
+        <v>1067.871035266843</v>
       </c>
       <c r="U13" t="n">
-        <v>872.2010717826705</v>
+        <v>795.4121620368691</v>
       </c>
       <c r="V13" t="n">
-        <v>872.2010717826705</v>
+        <v>557.4216067619345</v>
       </c>
       <c r="W13" t="n">
-        <v>599.4778346766622</v>
+        <v>284.6983696559262</v>
       </c>
       <c r="X13" t="n">
-        <v>599.4778346766622</v>
+        <v>73.40275168886116</v>
       </c>
       <c r="Y13" t="n">
-        <v>494.2097271839036</v>
+        <v>73.40275168886116</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1392.193178625434</v>
+        <v>2048.613443898985</v>
       </c>
       <c r="C14" t="n">
-        <v>1045.91814956506</v>
+        <v>1702.33841483861</v>
       </c>
       <c r="D14" t="n">
-        <v>861.6257501798293</v>
+        <v>1515.02718251799</v>
       </c>
       <c r="E14" t="n">
-        <v>861.6257501798293</v>
+        <v>1151.926417799783</v>
       </c>
       <c r="F14" t="n">
-        <v>861.6257501798293</v>
+        <v>763.6280008902122</v>
       </c>
       <c r="G14" t="n">
-        <v>467.1997182359921</v>
+        <v>369.2019689463752</v>
       </c>
       <c r="H14" t="n">
-        <v>171.400500978478</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I14" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J14" t="n">
-        <v>259.9016362724439</v>
+        <v>259.9016362724442</v>
       </c>
       <c r="K14" t="n">
-        <v>660.1599236624252</v>
+        <v>660.1599236624256</v>
       </c>
       <c r="L14" t="n">
-        <v>1208.992349970758</v>
+        <v>1208.992349970759</v>
       </c>
       <c r="M14" t="n">
-        <v>1836.280718398996</v>
+        <v>1836.280718398997</v>
       </c>
       <c r="N14" t="n">
         <v>2459.087270892388</v>
       </c>
       <c r="O14" t="n">
-        <v>3001.998199866672</v>
+        <v>3001.998199866673</v>
       </c>
       <c r="P14" t="n">
         <v>3427.685734150424</v>
       </c>
       <c r="Q14" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R14" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="S14" t="n">
-        <v>3536.023528770808</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.798486559587</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="U14" t="n">
-        <v>3112.79221213995</v>
+        <v>3439.131310023422</v>
       </c>
       <c r="V14" t="n">
-        <v>2804.416812676416</v>
+        <v>3130.755910559888</v>
       </c>
       <c r="W14" t="n">
-        <v>2474.335645286338</v>
+        <v>3130.755910559888</v>
       </c>
       <c r="X14" t="n">
-        <v>2123.557374905295</v>
+        <v>2779.977640178845</v>
       </c>
       <c r="Y14" t="n">
-        <v>1756.10553080952</v>
+        <v>2412.52579608307</v>
       </c>
     </row>
     <row r="15">
@@ -5352,7 +5352,7 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I15" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J15" t="n">
         <v>190.7868300185745</v>
@@ -5364,16 +5364,16 @@
         <v>1019.466726875456</v>
       </c>
       <c r="M15" t="n">
-        <v>1656.592236285677</v>
+        <v>1265.783825806936</v>
       </c>
       <c r="N15" t="n">
-        <v>1851.738624891205</v>
+        <v>1460.930214412464</v>
       </c>
       <c r="O15" t="n">
-        <v>2397.963346408931</v>
+        <v>2007.15493593019</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.521878151349</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.535935070558</v>
@@ -5410,43 +5410,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>448.9341881842427</v>
+        <v>254.3058318190981</v>
       </c>
       <c r="C16" t="n">
-        <v>448.9341881842427</v>
+        <v>108.0571367712279</v>
       </c>
       <c r="D16" t="n">
-        <v>321.5050366519436</v>
+        <v>108.0571367712279</v>
       </c>
       <c r="E16" t="n">
-        <v>321.5050366519436</v>
+        <v>108.0571367712279</v>
       </c>
       <c r="F16" t="n">
-        <v>321.5050366519436</v>
+        <v>108.0571367712279</v>
       </c>
       <c r="G16" t="n">
-        <v>175.5741343195768</v>
+        <v>108.0571367712279</v>
       </c>
       <c r="H16" t="n">
-        <v>175.5741343195768</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="I16" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J16" t="n">
-        <v>77.31987220580005</v>
+        <v>77.31987220580035</v>
       </c>
       <c r="K16" t="n">
-        <v>199.2891581709954</v>
+        <v>199.2891581709958</v>
       </c>
       <c r="L16" t="n">
-        <v>404.6758599192666</v>
+        <v>404.6758599192671</v>
       </c>
       <c r="M16" t="n">
-        <v>630.4077180105303</v>
+        <v>630.4077180105309</v>
       </c>
       <c r="N16" t="n">
-        <v>856.7355160172264</v>
+        <v>856.735516017227</v>
       </c>
       <c r="O16" t="n">
         <v>1051.467029701191</v>
@@ -5458,28 +5458,28 @@
         <v>1222.48887091454</v>
       </c>
       <c r="R16" t="n">
-        <v>1114.179282989312</v>
+        <v>1222.48887091454</v>
       </c>
       <c r="S16" t="n">
-        <v>1114.179282989312</v>
+        <v>1222.48887091454</v>
       </c>
       <c r="T16" t="n">
-        <v>1114.179282989312</v>
+        <v>1019.497832582762</v>
       </c>
       <c r="U16" t="n">
-        <v>1037.997256723789</v>
+        <v>753.0325143018722</v>
       </c>
       <c r="V16" t="n">
-        <v>806.0002563979392</v>
+        <v>521.035513976022</v>
       </c>
       <c r="W16" t="n">
-        <v>806.0002563979392</v>
+        <v>254.3058318190981</v>
       </c>
       <c r="X16" t="n">
-        <v>806.0002563979392</v>
+        <v>254.3058318190981</v>
       </c>
       <c r="Y16" t="n">
-        <v>607.8951651344457</v>
+        <v>254.3058318190981</v>
       </c>
     </row>
     <row r="17">
@@ -5501,16 +5501,16 @@
         <v>1009.208168964264</v>
       </c>
       <c r="F17" t="n">
-        <v>681.0887515859774</v>
+        <v>681.0887515859772</v>
       </c>
       <c r="G17" t="n">
-        <v>346.8417191734243</v>
+        <v>346.8417191734241</v>
       </c>
       <c r="H17" t="n">
-        <v>111.2215014471939</v>
+        <v>111.221501447194</v>
       </c>
       <c r="I17" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J17" t="n">
         <v>259.9016362724439</v>
@@ -5528,22 +5528,22 @@
         <v>2459.087270892388</v>
       </c>
       <c r="O17" t="n">
-        <v>3001.998199866672</v>
+        <v>3001.998199866673</v>
       </c>
       <c r="P17" t="n">
         <v>3427.685734150424</v>
       </c>
       <c r="Q17" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R17" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="S17" t="n">
-        <v>3596.202528302092</v>
+        <v>3596.202528302093</v>
       </c>
       <c r="T17" t="n">
-        <v>3464.156485622155</v>
+        <v>3464.156485622156</v>
       </c>
       <c r="U17" t="n">
         <v>3293.329210733803</v>
@@ -5589,28 +5589,28 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I18" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J18" t="n">
         <v>190.7868300185745</v>
       </c>
       <c r="K18" t="n">
-        <v>256.2151750173259</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L18" t="n">
-        <v>757.6461422330029</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M18" t="n">
-        <v>999.2113900653093</v>
+        <v>1265.783825806936</v>
       </c>
       <c r="N18" t="n">
-        <v>1668.906729270955</v>
+        <v>1460.930214412464</v>
       </c>
       <c r="O18" t="n">
-        <v>2215.131450788681</v>
+        <v>2007.15493593019</v>
       </c>
       <c r="P18" t="n">
-        <v>2636.521878151349</v>
+        <v>2428.545363292858</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.535935070558</v>
@@ -5647,58 +5647,58 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>412.1366096162898</v>
+        <v>412.1366096162895</v>
       </c>
       <c r="C19" t="n">
-        <v>326.0669140997036</v>
+        <v>401.7079069288199</v>
       </c>
       <c r="D19" t="n">
-        <v>258.8167620986886</v>
+        <v>401.7079069288199</v>
       </c>
       <c r="E19" t="n">
-        <v>193.7701559276163</v>
+        <v>336.6613007577474</v>
       </c>
       <c r="F19" t="n">
-        <v>129.7466958410266</v>
+        <v>272.6378406711577</v>
       </c>
       <c r="G19" t="n">
-        <v>115.3951347882928</v>
+        <v>186.885937870075</v>
       </c>
       <c r="H19" t="n">
-        <v>115.3951347882928</v>
+        <v>115.3951347882929</v>
       </c>
       <c r="I19" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J19" t="n">
-        <v>136.3013096464118</v>
+        <v>136.3013096464117</v>
       </c>
       <c r="K19" t="n">
-        <v>317.2520330522191</v>
+        <v>317.2520330522185</v>
       </c>
       <c r="L19" t="n">
-        <v>581.6201722411018</v>
+        <v>581.6201722411013</v>
       </c>
       <c r="M19" t="n">
-        <v>866.3334677729772</v>
+        <v>866.3334677729765</v>
       </c>
       <c r="N19" t="n">
-        <v>1151.642703220285</v>
+        <v>1151.642703220284</v>
       </c>
       <c r="O19" t="n">
-        <v>1405.355654344861</v>
+        <v>1405.35565434486</v>
       </c>
       <c r="P19" t="n">
-        <v>1610.65212202575</v>
+        <v>1610.652122025749</v>
       </c>
       <c r="Q19" t="n">
         <v>1694.340370439432</v>
       </c>
       <c r="R19" t="n">
-        <v>1646.209782045489</v>
+        <v>1646.209782045488</v>
       </c>
       <c r="S19" t="n">
-        <v>1521.434783224422</v>
+        <v>1521.434783224421</v>
       </c>
       <c r="T19" t="n">
         <v>1378.622744423927</v>
@@ -5707,16 +5707,16 @@
         <v>1172.336425674321</v>
       </c>
       <c r="V19" t="n">
-        <v>1000.518424879755</v>
+        <v>1000.518424879754</v>
       </c>
       <c r="W19" t="n">
-        <v>793.967742254115</v>
+        <v>793.9677422541145</v>
       </c>
       <c r="X19" t="n">
-        <v>648.8446787674184</v>
+        <v>648.8446787674177</v>
       </c>
       <c r="Y19" t="n">
-        <v>510.9185870352088</v>
+        <v>510.9185870352086</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1873.625174875708</v>
+        <v>1873.625174875709</v>
       </c>
       <c r="C20" t="n">
-        <v>1587.529145346617</v>
+        <v>1587.529145346618</v>
       </c>
       <c r="D20" t="n">
-        <v>1312.129934151187</v>
+        <v>1312.129934151188</v>
       </c>
       <c r="E20" t="n">
-        <v>1009.208168964264</v>
+        <v>1009.208168964265</v>
       </c>
       <c r="F20" t="n">
-        <v>681.0887515859771</v>
+        <v>681.0887515859779</v>
       </c>
       <c r="G20" t="n">
-        <v>346.841719173424</v>
+        <v>346.8417191734247</v>
       </c>
       <c r="H20" t="n">
         <v>111.221501447194</v>
       </c>
       <c r="I20" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886119</v>
       </c>
       <c r="J20" t="n">
-        <v>259.9016362724435</v>
+        <v>259.9016362724439</v>
       </c>
       <c r="K20" t="n">
-        <v>660.1599236624249</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L20" t="n">
         <v>1208.992349970758</v>
       </c>
       <c r="M20" t="n">
-        <v>1836.280718398996</v>
+        <v>1836.280718398997</v>
       </c>
       <c r="N20" t="n">
         <v>2459.087270892388</v>
       </c>
       <c r="O20" t="n">
-        <v>3001.998199866672</v>
+        <v>3001.998199866673</v>
       </c>
       <c r="P20" t="n">
-        <v>3427.685734150424</v>
+        <v>3427.685734150425</v>
       </c>
       <c r="Q20" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R20" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="S20" t="n">
-        <v>3596.202528302092</v>
+        <v>3596.202528302093</v>
       </c>
       <c r="T20" t="n">
-        <v>3464.156485622155</v>
+        <v>3464.156485622156</v>
       </c>
       <c r="U20" t="n">
-        <v>3293.329210733803</v>
+        <v>3293.329210733804</v>
       </c>
       <c r="V20" t="n">
-        <v>3045.132810801553</v>
+        <v>3045.132810801554</v>
       </c>
       <c r="W20" t="n">
-        <v>2775.230642942759</v>
+        <v>2775.230642942761</v>
       </c>
       <c r="X20" t="n">
-        <v>2484.631372093</v>
+        <v>2484.631372093002</v>
       </c>
       <c r="Y20" t="n">
-        <v>2177.358527528509</v>
+        <v>2177.35852752851</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I21" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886119</v>
       </c>
       <c r="J21" t="n">
-        <v>190.7868300185745</v>
+        <v>190.7868300185746</v>
       </c>
       <c r="K21" t="n">
         <v>518.0357596597787</v>
       </c>
       <c r="L21" t="n">
-        <v>652.3347850250312</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M21" t="n">
-        <v>1289.460294435253</v>
+        <v>1195.544223173177</v>
       </c>
       <c r="N21" t="n">
-        <v>1484.60668304078</v>
+        <v>1460.930214412464</v>
       </c>
       <c r="O21" t="n">
         <v>2007.15493593019</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.0277544464202</v>
+        <v>412.1366096162894</v>
       </c>
       <c r="C22" t="n">
-        <v>468.958058929834</v>
+        <v>326.0669140997032</v>
       </c>
       <c r="D22" t="n">
-        <v>401.7079069288189</v>
+        <v>326.0669140997032</v>
       </c>
       <c r="E22" t="n">
-        <v>336.6613007577465</v>
+        <v>272.6378406711577</v>
       </c>
       <c r="F22" t="n">
-        <v>272.6378406711568</v>
+        <v>272.6378406711577</v>
       </c>
       <c r="G22" t="n">
-        <v>186.8859378700749</v>
+        <v>186.885937870075</v>
       </c>
       <c r="H22" t="n">
-        <v>115.3951347882928</v>
+        <v>115.3951347882929</v>
       </c>
       <c r="I22" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886119</v>
       </c>
       <c r="J22" t="n">
-        <v>136.3013096464118</v>
+        <v>136.3013096464117</v>
       </c>
       <c r="K22" t="n">
-        <v>317.2520330522186</v>
+        <v>317.2520330522185</v>
       </c>
       <c r="L22" t="n">
-        <v>581.6201722411014</v>
+        <v>581.6201722411013</v>
       </c>
       <c r="M22" t="n">
         <v>866.3334677729765</v>
@@ -5944,16 +5944,16 @@
         <v>1172.336425674321</v>
       </c>
       <c r="V22" t="n">
-        <v>1143.409569709885</v>
+        <v>1000.518424879755</v>
       </c>
       <c r="W22" t="n">
-        <v>936.8588870842455</v>
+        <v>793.9677422541148</v>
       </c>
       <c r="X22" t="n">
-        <v>791.7358235975487</v>
+        <v>648.8446787674181</v>
       </c>
       <c r="Y22" t="n">
-        <v>653.8097318653392</v>
+        <v>510.9185870352085</v>
       </c>
     </row>
     <row r="23">
@@ -5963,40 +5963,40 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1873.625174875708</v>
+        <v>1873.625174875709</v>
       </c>
       <c r="C23" t="n">
-        <v>1587.529145346617</v>
+        <v>1587.529145346618</v>
       </c>
       <c r="D23" t="n">
-        <v>1312.129934151187</v>
+        <v>1312.129934151188</v>
       </c>
       <c r="E23" t="n">
         <v>1009.208168964264</v>
       </c>
       <c r="F23" t="n">
-        <v>681.0887515859771</v>
+        <v>681.0887515859774</v>
       </c>
       <c r="G23" t="n">
-        <v>346.841719173424</v>
+        <v>346.8417191734242</v>
       </c>
       <c r="H23" t="n">
         <v>111.221501447194</v>
       </c>
       <c r="I23" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J23" t="n">
-        <v>259.9016362724439</v>
+        <v>259.9016362724442</v>
       </c>
       <c r="K23" t="n">
-        <v>660.1599236624252</v>
+        <v>660.1599236624256</v>
       </c>
       <c r="L23" t="n">
-        <v>1208.992349970758</v>
+        <v>1208.992349970759</v>
       </c>
       <c r="M23" t="n">
-        <v>1836.280718398996</v>
+        <v>1836.280718398997</v>
       </c>
       <c r="N23" t="n">
         <v>2459.087270892388</v>
@@ -6008,31 +6008,31 @@
         <v>3427.685734150424</v>
       </c>
       <c r="Q23" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443059</v>
       </c>
       <c r="R23" t="n">
-        <v>3670.137584443058</v>
+        <v>3670.137584443061</v>
       </c>
       <c r="S23" t="n">
-        <v>3596.202528302092</v>
+        <v>3596.202528302095</v>
       </c>
       <c r="T23" t="n">
-        <v>3464.156485622155</v>
+        <v>3464.156485622158</v>
       </c>
       <c r="U23" t="n">
-        <v>3293.329210733802</v>
+        <v>3293.329210733805</v>
       </c>
       <c r="V23" t="n">
-        <v>3045.132810801553</v>
+        <v>3045.132810801555</v>
       </c>
       <c r="W23" t="n">
-        <v>2775.230642942759</v>
+        <v>2775.230642942761</v>
       </c>
       <c r="X23" t="n">
-        <v>2484.631372093</v>
+        <v>2484.631372093002</v>
       </c>
       <c r="Y23" t="n">
-        <v>2177.358527528509</v>
+        <v>2177.35852752851</v>
       </c>
     </row>
     <row r="24">
@@ -6063,7 +6063,7 @@
         <v>119.7817444402854</v>
       </c>
       <c r="I24" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J24" t="n">
         <v>190.7868300185745</v>
@@ -6072,16 +6072,16 @@
         <v>518.0357596597787</v>
       </c>
       <c r="L24" t="n">
-        <v>1019.466726875456</v>
+        <v>652.3347850250312</v>
       </c>
       <c r="M24" t="n">
-        <v>1581.061966760474</v>
+        <v>1289.460294435253</v>
       </c>
       <c r="N24" t="n">
-        <v>1776.208355366001</v>
+        <v>1959.155633640898</v>
       </c>
       <c r="O24" t="n">
-        <v>2322.433076883728</v>
+        <v>2115.456659074662</v>
       </c>
       <c r="P24" t="n">
         <v>2428.545363292858</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>555.027754446421</v>
+        <v>425.9576881887593</v>
       </c>
       <c r="C25" t="n">
-        <v>468.9580589298348</v>
+        <v>339.887992672173</v>
       </c>
       <c r="D25" t="n">
-        <v>401.7079069288197</v>
+        <v>272.6378406711578</v>
       </c>
       <c r="E25" t="n">
-        <v>336.6613007577473</v>
+        <v>272.6378406711578</v>
       </c>
       <c r="F25" t="n">
-        <v>272.6378406711576</v>
+        <v>272.6378406711578</v>
       </c>
       <c r="G25" t="n">
-        <v>186.8859378700749</v>
+        <v>186.8859378700751</v>
       </c>
       <c r="H25" t="n">
-        <v>115.3951347882928</v>
+        <v>115.3951347882929</v>
       </c>
       <c r="I25" t="n">
-        <v>73.40275168886116</v>
+        <v>73.40275168886117</v>
       </c>
       <c r="J25" t="n">
         <v>136.3013096464118</v>
@@ -6151,46 +6151,46 @@
         <v>317.2520330522186</v>
       </c>
       <c r="L25" t="n">
-        <v>581.6201722411014</v>
+        <v>581.6201722411012</v>
       </c>
       <c r="M25" t="n">
-        <v>866.3334677729766</v>
+        <v>866.3334677729764</v>
       </c>
       <c r="N25" t="n">
         <v>1151.642703220284</v>
       </c>
       <c r="O25" t="n">
-        <v>1405.35565434486</v>
+        <v>1405.355654344859</v>
       </c>
       <c r="P25" t="n">
         <v>1610.652122025749</v>
       </c>
       <c r="Q25" t="n">
-        <v>1694.340370439432</v>
+        <v>1694.340370439431</v>
       </c>
       <c r="R25" t="n">
-        <v>1646.209782045488</v>
+        <v>1660.030860617958</v>
       </c>
       <c r="S25" t="n">
-        <v>1521.434783224421</v>
+        <v>1535.255861796891</v>
       </c>
       <c r="T25" t="n">
-        <v>1378.622744423927</v>
+        <v>1392.443822996397</v>
       </c>
       <c r="U25" t="n">
-        <v>1172.336425674321</v>
+        <v>1186.157504246791</v>
       </c>
       <c r="V25" t="n">
-        <v>1005.483477977677</v>
+        <v>1014.339503452225</v>
       </c>
       <c r="W25" t="n">
-        <v>798.9327953520367</v>
+        <v>807.7888208265847</v>
       </c>
       <c r="X25" t="n">
-        <v>653.80973186534</v>
+        <v>662.6657573398879</v>
       </c>
       <c r="Y25" t="n">
-        <v>653.80973186534</v>
+        <v>524.7396656076784</v>
       </c>
     </row>
     <row r="26">
@@ -6224,10 +6224,10 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J26" t="n">
-        <v>259.9016362724442</v>
+        <v>259.9016362724439</v>
       </c>
       <c r="K26" t="n">
-        <v>660.1599236624254</v>
+        <v>660.1599236624252</v>
       </c>
       <c r="L26" t="n">
         <v>1208.992349970758</v>
@@ -6239,7 +6239,7 @@
         <v>2459.087270892388</v>
       </c>
       <c r="O26" t="n">
-        <v>3001.998199866673</v>
+        <v>3001.998199866672</v>
       </c>
       <c r="P26" t="n">
         <v>3427.685734150424</v>
@@ -6248,19 +6248,19 @@
         <v>3670.137584443058</v>
       </c>
       <c r="R26" t="n">
-        <v>3670.137584443058</v>
+        <v>3668.520816012659</v>
       </c>
       <c r="S26" t="n">
-        <v>3602.196083251176</v>
+        <v>3600.579314820777</v>
       </c>
       <c r="T26" t="n">
-        <v>3476.143595520324</v>
+        <v>3474.526827089925</v>
       </c>
       <c r="U26" t="n">
-        <v>3222.44983322065</v>
+        <v>3221.406551344791</v>
       </c>
       <c r="V26" t="n">
-        <v>2980.246988237485</v>
+        <v>2979.203706361626</v>
       </c>
       <c r="W26" t="n">
         <v>2715.295093451917</v>
@@ -6306,13 +6306,13 @@
         <v>190.7868300185745</v>
       </c>
       <c r="K27" t="n">
-        <v>256.2151750173259</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L27" t="n">
-        <v>757.6461422330029</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M27" t="n">
-        <v>933.7236385307245</v>
+        <v>1265.783825806936</v>
       </c>
       <c r="N27" t="n">
         <v>1460.930214412464</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.0728698028297</v>
+        <v>513.0728698028296</v>
       </c>
       <c r="C28" t="n">
-        <v>432.9967292353278</v>
+        <v>432.9967292353277</v>
       </c>
       <c r="D28" t="n">
-        <v>371.7401321833972</v>
+        <v>371.7401321833971</v>
       </c>
       <c r="E28" t="n">
-        <v>312.6870809614092</v>
+        <v>312.687080961409</v>
       </c>
       <c r="F28" t="n">
-        <v>254.6571758239039</v>
+        <v>254.6571758239037</v>
       </c>
       <c r="G28" t="n">
-        <v>174.8988279719056</v>
+        <v>174.8988279719054</v>
       </c>
       <c r="H28" t="n">
-        <v>109.4015798392084</v>
+        <v>109.4015798392077</v>
       </c>
       <c r="I28" t="n">
         <v>73.40275168886116</v>
@@ -6385,7 +6385,7 @@
         <v>142.1755928520094</v>
       </c>
       <c r="K28" t="n">
-        <v>329.0005994634138</v>
+        <v>329.0005994634139</v>
       </c>
       <c r="L28" t="n">
         <v>599.2430218578942</v>
@@ -6400,16 +6400,16 @@
         <v>1440.601353578445</v>
       </c>
       <c r="P28" t="n">
-        <v>1651.772104464933</v>
+        <v>1651.772104464932</v>
       </c>
       <c r="Q28" t="n">
-        <v>1741.334636084213</v>
+        <v>1741.334636084212</v>
       </c>
       <c r="R28" t="n">
-        <v>1699.197602639354</v>
+        <v>1699.197602639353</v>
       </c>
       <c r="S28" t="n">
-        <v>1580.416158767371</v>
+        <v>1580.41615876737</v>
       </c>
       <c r="T28" t="n">
         <v>1443.597674915961</v>
@@ -6424,10 +6424,10 @@
         <v>876.9233375934016</v>
       </c>
       <c r="X28" t="n">
-        <v>737.7938290557893</v>
+        <v>737.7938290557894</v>
       </c>
       <c r="Y28" t="n">
-        <v>605.8612922726643</v>
+        <v>605.8612922726642</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6449,13 @@
         <v>1009.208168964264</v>
       </c>
       <c r="F29" t="n">
-        <v>681.0887515859774</v>
+        <v>681.0887515859773</v>
       </c>
       <c r="G29" t="n">
-        <v>346.8417191734244</v>
+        <v>346.8417191734243</v>
       </c>
       <c r="H29" t="n">
-        <v>111.2215014471944</v>
+        <v>111.2215014471939</v>
       </c>
       <c r="I29" t="n">
         <v>73.40275168886116</v>
@@ -6494,10 +6494,10 @@
         <v>3464.156485622155</v>
       </c>
       <c r="U29" t="n">
-        <v>3293.329210733803</v>
+        <v>3293.329210733802</v>
       </c>
       <c r="V29" t="n">
-        <v>3045.132810801553</v>
+        <v>3045.132810801552</v>
       </c>
       <c r="W29" t="n">
         <v>2775.230642942759</v>
@@ -6543,16 +6543,16 @@
         <v>190.7868300185745</v>
       </c>
       <c r="K30" t="n">
-        <v>256.2151750173258</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L30" t="n">
-        <v>757.6461422330028</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M30" t="n">
-        <v>1181.15857129078</v>
+        <v>1265.783825806936</v>
       </c>
       <c r="N30" t="n">
-        <v>1850.853910496426</v>
+        <v>1460.930214412464</v>
       </c>
       <c r="O30" t="n">
         <v>2007.15493593019</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.2834685459063</v>
+        <v>412.1366096162905</v>
       </c>
       <c r="C31" t="n">
-        <v>341.2137730293201</v>
+        <v>326.0669140997043</v>
       </c>
       <c r="D31" t="n">
-        <v>273.9636210283052</v>
+        <v>272.6378406711574</v>
       </c>
       <c r="E31" t="n">
-        <v>208.9170148572328</v>
+        <v>272.6378406711574</v>
       </c>
       <c r="F31" t="n">
-        <v>144.8935547706432</v>
+        <v>272.6378406711574</v>
       </c>
       <c r="G31" t="n">
-        <v>144.8935547706432</v>
+        <v>186.8859378700747</v>
       </c>
       <c r="H31" t="n">
-        <v>73.40275168886116</v>
+        <v>115.3951347882928</v>
       </c>
       <c r="I31" t="n">
         <v>73.40275168886116</v>
       </c>
       <c r="J31" t="n">
-        <v>136.3013096464118</v>
+        <v>136.3013096464117</v>
       </c>
       <c r="K31" t="n">
-        <v>317.2520330522187</v>
+        <v>317.2520330522186</v>
       </c>
       <c r="L31" t="n">
-        <v>581.6201722411015</v>
+        <v>581.6201722411014</v>
       </c>
       <c r="M31" t="n">
         <v>866.3334677729767</v>
@@ -6646,25 +6646,25 @@
         <v>1646.209782045489</v>
       </c>
       <c r="S31" t="n">
-        <v>1521.434783224422</v>
+        <v>1521.434783224421</v>
       </c>
       <c r="T31" t="n">
-        <v>1378.622744423928</v>
+        <v>1378.622744423927</v>
       </c>
       <c r="U31" t="n">
-        <v>1172.336425674322</v>
+        <v>1172.336425674321</v>
       </c>
       <c r="V31" t="n">
         <v>1000.518424879755</v>
       </c>
       <c r="W31" t="n">
-        <v>793.9677422541157</v>
+        <v>793.9677422541154</v>
       </c>
       <c r="X31" t="n">
-        <v>663.9915376970347</v>
+        <v>648.8446787674188</v>
       </c>
       <c r="Y31" t="n">
-        <v>526.0654459648252</v>
+        <v>510.9185870352094</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6686,13 @@
         <v>985.2339491679263</v>
       </c>
       <c r="F32" t="n">
-        <v>663.108086738724</v>
+        <v>663.1080867387238</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8546092752553</v>
+        <v>334.8546092752551</v>
       </c>
       <c r="H32" t="n">
-        <v>105.2279464981096</v>
+        <v>105.2279464981095</v>
       </c>
       <c r="I32" t="n">
         <v>73.40275168886116</v>
@@ -6701,7 +6701,7 @@
         <v>259.9016362724442</v>
       </c>
       <c r="K32" t="n">
-        <v>660.1599236624256</v>
+        <v>660.1599236624255</v>
       </c>
       <c r="L32" t="n">
         <v>1208.992349970758</v>
@@ -6728,10 +6728,10 @@
         <v>3601.152801375316</v>
       </c>
       <c r="T32" t="n">
-        <v>3475.100313644464</v>
+        <v>3475.100313644463</v>
       </c>
       <c r="U32" t="n">
-        <v>3310.266593705196</v>
+        <v>3310.266593705195</v>
       </c>
       <c r="V32" t="n">
         <v>3068.06374872203</v>
@@ -6740,10 +6740,10 @@
         <v>2804.155135812321</v>
       </c>
       <c r="X32" t="n">
-        <v>2519.549419911647</v>
+        <v>2430.689377551241</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.27013029624</v>
+        <v>2129.410087935834</v>
       </c>
     </row>
     <row r="33">
@@ -6777,22 +6777,22 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J33" t="n">
-        <v>185.1502645246218</v>
+        <v>190.7868300185745</v>
       </c>
       <c r="K33" t="n">
-        <v>250.5786095233731</v>
+        <v>518.0357596597787</v>
       </c>
       <c r="L33" t="n">
-        <v>752.0095767390501</v>
+        <v>1019.466726875456</v>
       </c>
       <c r="M33" t="n">
-        <v>1389.135086149272</v>
+        <v>1656.592236285677</v>
       </c>
       <c r="N33" t="n">
-        <v>2058.830425354917</v>
+        <v>2326.287575491323</v>
       </c>
       <c r="O33" t="n">
-        <v>2215.131450788681</v>
+        <v>2482.588600925087</v>
       </c>
       <c r="P33" t="n">
         <v>2636.521878151349</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.07286980283</v>
+        <v>513.0728698028298</v>
       </c>
       <c r="C34" t="n">
-        <v>432.9967292353282</v>
+        <v>432.9967292353281</v>
       </c>
       <c r="D34" t="n">
-        <v>371.7401321833977</v>
+        <v>371.7401321833975</v>
       </c>
       <c r="E34" t="n">
-        <v>312.6870809614097</v>
+        <v>312.6870809614095</v>
       </c>
       <c r="F34" t="n">
-        <v>254.6571758239045</v>
+        <v>254.6571758239043</v>
       </c>
       <c r="G34" t="n">
         <v>174.898827971906</v>
@@ -6856,19 +6856,19 @@
         <v>73.40275168886116</v>
       </c>
       <c r="J34" t="n">
-        <v>142.175592852009</v>
+        <v>142.1755928520095</v>
       </c>
       <c r="K34" t="n">
-        <v>329.0005994634134</v>
+        <v>329.0005994634139</v>
       </c>
       <c r="L34" t="n">
-        <v>599.2430218578937</v>
+        <v>599.2430218578943</v>
       </c>
       <c r="M34" t="n">
-        <v>889.8306005953671</v>
+        <v>889.8306005953673</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.014119248273</v>
+        <v>1181.014119248272</v>
       </c>
       <c r="O34" t="n">
         <v>1440.601353578446</v>
@@ -6895,13 +6895,13 @@
         <v>1077.480465269957</v>
       </c>
       <c r="W34" t="n">
-        <v>876.9233375934018</v>
+        <v>876.9233375934016</v>
       </c>
       <c r="X34" t="n">
-        <v>737.7938290557896</v>
+        <v>737.7938290557894</v>
       </c>
       <c r="Y34" t="n">
-        <v>605.8612922726646</v>
+        <v>605.8612922726644</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>1829.83552851301</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.733053933003</v>
+        <v>1549.733053933004</v>
       </c>
       <c r="D35" t="n">
         <v>1280.327397686658</v>
@@ -6932,31 +6932,31 @@
         <v>103.3931847790022</v>
       </c>
       <c r="I35" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J35" t="n">
-        <v>258.0668745533363</v>
+        <v>168.1635503170715</v>
       </c>
       <c r="K35" t="n">
-        <v>658.3251619433174</v>
+        <v>568.4218377070526</v>
       </c>
       <c r="L35" t="n">
-        <v>1207.15758825165</v>
+        <v>1117.254264015385</v>
       </c>
       <c r="M35" t="n">
-        <v>1834.445956679888</v>
+        <v>1744.542632443623</v>
       </c>
       <c r="N35" t="n">
-        <v>2457.25250917328</v>
+        <v>2367.349184937015</v>
       </c>
       <c r="O35" t="n">
-        <v>3000.163438147564</v>
+        <v>2910.260113911299</v>
       </c>
       <c r="P35" t="n">
-        <v>3425.850972431315</v>
+        <v>3335.947648195051</v>
       </c>
       <c r="Q35" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R35" t="n">
         <v>3578.399498487686</v>
@@ -6971,13 +6971,13 @@
         <v>3219.571789625684</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.368944642517</v>
+        <v>2977.368944642518</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.460331732808</v>
+        <v>2713.460331732809</v>
       </c>
       <c r="X35" t="n">
-        <v>2428.854615832133</v>
+        <v>2428.854615832134</v>
       </c>
       <c r="Y35" t="n">
         <v>2127.575326216727</v>
@@ -7008,10 +7008,10 @@
         <v>218.995960181891</v>
       </c>
       <c r="H36" t="n">
-        <v>117.946982721178</v>
+        <v>117.9469827211779</v>
       </c>
       <c r="I36" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J36" t="n">
         <v>188.952068299467</v>
@@ -7023,10 +7023,10 @@
         <v>1017.631965156348</v>
       </c>
       <c r="M36" t="n">
-        <v>1653.872760171792</v>
+        <v>1263.94906408783</v>
       </c>
       <c r="N36" t="n">
-        <v>1849.019148777319</v>
+        <v>1459.095452693357</v>
       </c>
       <c r="O36" t="n">
         <v>2005.320174211083</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.2381080837223</v>
+        <v>511.2381080837222</v>
       </c>
       <c r="C37" t="n">
         <v>431.1619675162204</v>
       </c>
       <c r="D37" t="n">
-        <v>369.9053704642898</v>
+        <v>369.9053704642897</v>
       </c>
       <c r="E37" t="n">
         <v>310.8523192423017</v>
       </c>
       <c r="F37" t="n">
-        <v>252.8224141047965</v>
+        <v>252.8224141047964</v>
       </c>
       <c r="G37" t="n">
-        <v>173.0640662527982</v>
+        <v>173.0640662527981</v>
       </c>
       <c r="H37" t="n">
-        <v>107.5668181201005</v>
+        <v>107.5668181201004</v>
       </c>
       <c r="I37" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J37" t="n">
         <v>140.3408311329019</v>
@@ -7099,13 +7099,13 @@
         <v>327.1658377443064</v>
       </c>
       <c r="L37" t="n">
-        <v>597.4082601387868</v>
+        <v>597.4082601387867</v>
       </c>
       <c r="M37" t="n">
         <v>887.9958388762595</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.179357529165</v>
+        <v>1179.179357529164</v>
       </c>
       <c r="O37" t="n">
         <v>1438.766591859338</v>
@@ -7132,10 +7132,10 @@
         <v>1075.64570355085</v>
       </c>
       <c r="W37" t="n">
-        <v>875.0885758742943</v>
+        <v>875.0885758742941</v>
       </c>
       <c r="X37" t="n">
-        <v>735.9590673366821</v>
+        <v>735.9590673366819</v>
       </c>
       <c r="Y37" t="n">
         <v>604.0265305535569</v>
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1829.835528513011</v>
+        <v>1829.83552851301</v>
       </c>
       <c r="C38" t="n">
         <v>1549.733053933004</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.327397686659</v>
+        <v>1280.327397686658</v>
       </c>
       <c r="E38" t="n">
-        <v>983.3991874488197</v>
+        <v>983.3991874488192</v>
       </c>
       <c r="F38" t="n">
-        <v>661.273325019617</v>
+        <v>661.2733250196168</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0198475561482</v>
+        <v>333.0198475561477</v>
       </c>
       <c r="H38" t="n">
-        <v>103.3931847790022</v>
+        <v>103.3931847790021</v>
       </c>
       <c r="I38" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J38" t="n">
-        <v>258.0668745533363</v>
+        <v>258.0668745533362</v>
       </c>
       <c r="K38" t="n">
-        <v>658.3251619433174</v>
+        <v>568.4218377070532</v>
       </c>
       <c r="L38" t="n">
-        <v>1207.15758825165</v>
+        <v>1117.254264015386</v>
       </c>
       <c r="M38" t="n">
-        <v>1744.542632443624</v>
+        <v>1744.542632443623</v>
       </c>
       <c r="N38" t="n">
-        <v>2367.349184937016</v>
+        <v>2367.349184937015</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.2601139113</v>
+        <v>2910.260113911299</v>
       </c>
       <c r="P38" t="n">
-        <v>3335.947648195052</v>
+        <v>3335.947648195051</v>
       </c>
       <c r="Q38" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R38" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S38" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T38" t="n">
-        <v>3384.405509564952</v>
+        <v>3384.405509564951</v>
       </c>
       <c r="U38" t="n">
-        <v>3219.571789625684</v>
+        <v>3219.571789625682</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.368944642518</v>
+        <v>2977.368944642517</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.460331732809</v>
+        <v>2713.460331732808</v>
       </c>
       <c r="X38" t="n">
-        <v>2428.854615832134</v>
+        <v>2428.854615832133</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.575326216728</v>
+        <v>2127.575326216727</v>
       </c>
     </row>
     <row r="39">
@@ -7245,31 +7245,31 @@
         <v>218.995960181891</v>
       </c>
       <c r="H39" t="n">
-        <v>117.946982721178</v>
+        <v>117.9469827211779</v>
       </c>
       <c r="I39" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J39" t="n">
-        <v>71.56798996975373</v>
+        <v>188.952068299467</v>
       </c>
       <c r="K39" t="n">
-        <v>319.8681648328039</v>
+        <v>516.200997940671</v>
       </c>
       <c r="L39" t="n">
-        <v>821.2991320484808</v>
+        <v>1017.631965156348</v>
       </c>
       <c r="M39" t="n">
-        <v>997.3766283462023</v>
+        <v>1263.94906408783</v>
       </c>
       <c r="N39" t="n">
-        <v>1667.071967551848</v>
+        <v>1459.095452693357</v>
       </c>
       <c r="O39" t="n">
-        <v>2213.296689069574</v>
+        <v>2005.320174211083</v>
       </c>
       <c r="P39" t="n">
-        <v>2634.687116432242</v>
+        <v>2426.710601573751</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.701173351451</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2350.137732206304</v>
+        <v>511.2381080837224</v>
       </c>
       <c r="C40" t="n">
-        <v>2270.061591638802</v>
+        <v>431.1619675162206</v>
       </c>
       <c r="D40" t="n">
-        <v>2208.804994586871</v>
+        <v>369.9053704642899</v>
       </c>
       <c r="E40" t="n">
-        <v>2149.751943364883</v>
+        <v>310.852319242302</v>
       </c>
       <c r="F40" t="n">
-        <v>2091.722038227378</v>
+        <v>252.8224141047968</v>
       </c>
       <c r="G40" t="n">
-        <v>2011.963690375379</v>
+        <v>173.0640662527985</v>
       </c>
       <c r="H40" t="n">
-        <v>1946.466442242682</v>
+        <v>107.5668181201009</v>
       </c>
       <c r="I40" t="n">
-        <v>1910.467614092334</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J40" t="n">
-        <v>1979.240455255483</v>
+        <v>140.3408311329019</v>
       </c>
       <c r="K40" t="n">
-        <v>2166.065461866887</v>
+        <v>327.1658377443064</v>
       </c>
       <c r="L40" t="n">
-        <v>2436.307884261367</v>
+        <v>597.4082601387867</v>
       </c>
       <c r="M40" t="n">
-        <v>2726.89546299884</v>
+        <v>887.9958388762595</v>
       </c>
       <c r="N40" t="n">
-        <v>3018.078981651746</v>
+        <v>1179.179357529165</v>
       </c>
       <c r="O40" t="n">
-        <v>3277.666215981919</v>
+        <v>1438.766591859338</v>
       </c>
       <c r="P40" t="n">
-        <v>3488.836966868406</v>
+        <v>1649.937342745825</v>
       </c>
       <c r="Q40" t="n">
-        <v>3578.399498487686</v>
+        <v>1739.499874365105</v>
       </c>
       <c r="R40" t="n">
-        <v>3536.262465042827</v>
+        <v>1697.362840920246</v>
       </c>
       <c r="S40" t="n">
-        <v>3417.481021170844</v>
+        <v>1578.581397048263</v>
       </c>
       <c r="T40" t="n">
-        <v>3280.662537319434</v>
+        <v>1441.762913196853</v>
       </c>
       <c r="U40" t="n">
-        <v>3080.369773518913</v>
+        <v>1241.470149396331</v>
       </c>
       <c r="V40" t="n">
-        <v>2914.545327673431</v>
+        <v>1075.64570355085</v>
       </c>
       <c r="W40" t="n">
-        <v>2713.988199996876</v>
+        <v>875.0885758742943</v>
       </c>
       <c r="X40" t="n">
-        <v>2574.858691459263</v>
+        <v>735.9590673366821</v>
       </c>
       <c r="Y40" t="n">
-        <v>2442.926154676138</v>
+        <v>604.0265305535571</v>
       </c>
     </row>
     <row r="41">
@@ -7388,70 +7388,70 @@
         <v>1829.83552851301</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.733053933004</v>
+        <v>1549.733053933003</v>
       </c>
       <c r="D41" t="n">
         <v>1280.327397686658</v>
       </c>
       <c r="E41" t="n">
-        <v>983.3991874488191</v>
+        <v>983.399187448819</v>
       </c>
       <c r="F41" t="n">
-        <v>661.2733250196167</v>
+        <v>661.2733250196165</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0198475561479</v>
+        <v>333.0198475561478</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3931847790022</v>
+        <v>103.3931847790021</v>
       </c>
       <c r="I41" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J41" t="n">
-        <v>258.0668745533363</v>
+        <v>258.0668745533362</v>
       </c>
       <c r="K41" t="n">
-        <v>658.3251619433174</v>
+        <v>658.3251619433172</v>
       </c>
       <c r="L41" t="n">
         <v>1207.15758825165</v>
       </c>
       <c r="M41" t="n">
-        <v>1744.542632443624</v>
+        <v>1834.445956679887</v>
       </c>
       <c r="N41" t="n">
-        <v>2367.349184937016</v>
+        <v>2367.349184937015</v>
       </c>
       <c r="O41" t="n">
-        <v>2910.2601139113</v>
+        <v>2910.260113911299</v>
       </c>
       <c r="P41" t="n">
-        <v>3335.947648195052</v>
+        <v>3335.947648195051</v>
       </c>
       <c r="Q41" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R41" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S41" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T41" t="n">
-        <v>3384.405509564952</v>
+        <v>3384.405509564951</v>
       </c>
       <c r="U41" t="n">
-        <v>3219.571789625684</v>
+        <v>3219.571789625682</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.368944642518</v>
+        <v>2977.368944642517</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.460331732809</v>
+        <v>2713.460331732808</v>
       </c>
       <c r="X41" t="n">
-        <v>2428.854615832134</v>
+        <v>2428.854615832133</v>
       </c>
       <c r="Y41" t="n">
         <v>2127.575326216727</v>
@@ -7482,31 +7482,31 @@
         <v>218.995960181891</v>
       </c>
       <c r="H42" t="n">
-        <v>117.946982721178</v>
+        <v>117.9469827211779</v>
       </c>
       <c r="I42" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J42" t="n">
-        <v>188.952068299467</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="K42" t="n">
-        <v>254.3804132982183</v>
+        <v>398.8169196109577</v>
       </c>
       <c r="L42" t="n">
-        <v>755.8113805138953</v>
+        <v>533.11594497621</v>
       </c>
       <c r="M42" t="n">
-        <v>1392.936889924117</v>
+        <v>1170.241454386431</v>
       </c>
       <c r="N42" t="n">
-        <v>2062.632229129762</v>
+        <v>1839.936793592076</v>
       </c>
       <c r="O42" t="n">
-        <v>2528.574830023112</v>
+        <v>2386.161515109803</v>
       </c>
       <c r="P42" t="n">
-        <v>2634.687116432242</v>
+        <v>2492.273801518933</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.701173351451</v>
@@ -7543,28 +7543,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.2381080837222</v>
+        <v>511.2381080837224</v>
       </c>
       <c r="C43" t="n">
-        <v>431.1619675162204</v>
+        <v>431.1619675162206</v>
       </c>
       <c r="D43" t="n">
-        <v>369.9053704642897</v>
+        <v>369.90537046429</v>
       </c>
       <c r="E43" t="n">
-        <v>310.8523192423017</v>
+        <v>310.852319242302</v>
       </c>
       <c r="F43" t="n">
-        <v>252.8224141047964</v>
+        <v>252.8224141047968</v>
       </c>
       <c r="G43" t="n">
-        <v>173.0640662527981</v>
+        <v>173.0640662527985</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5668181201004</v>
+        <v>107.5668181201009</v>
       </c>
       <c r="I43" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J43" t="n">
         <v>140.3408311329019</v>
@@ -7573,13 +7573,13 @@
         <v>327.1658377443064</v>
       </c>
       <c r="L43" t="n">
-        <v>597.4082601387865</v>
+        <v>597.4082601387867</v>
       </c>
       <c r="M43" t="n">
-        <v>887.9958388762599</v>
+        <v>887.9958388762593</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.179357529165</v>
+        <v>1179.179357529164</v>
       </c>
       <c r="O43" t="n">
         <v>1438.766591859338</v>
@@ -7606,13 +7606,13 @@
         <v>1075.64570355085</v>
       </c>
       <c r="W43" t="n">
-        <v>875.0885758742943</v>
+        <v>875.0885758742942</v>
       </c>
       <c r="X43" t="n">
         <v>735.959067336682</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.0265305535569</v>
+        <v>604.026530553557</v>
       </c>
     </row>
     <row r="44">
@@ -7637,43 +7637,43 @@
         <v>661.2733250196165</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0198475561478</v>
+        <v>333.0198475561479</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3931847790021</v>
+        <v>103.3931847790022</v>
       </c>
       <c r="I44" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J44" t="n">
-        <v>258.0668745533363</v>
+        <v>258.0668745533362</v>
       </c>
       <c r="K44" t="n">
-        <v>658.3251619433174</v>
+        <v>658.3251619433172</v>
       </c>
       <c r="L44" t="n">
         <v>1207.15758825165</v>
       </c>
       <c r="M44" t="n">
-        <v>1834.445956679888</v>
+        <v>1744.542632443623</v>
       </c>
       <c r="N44" t="n">
-        <v>2457.25250917328</v>
+        <v>2367.349184937015</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.2601139113</v>
+        <v>2910.260113911299</v>
       </c>
       <c r="P44" t="n">
-        <v>3335.947648195052</v>
+        <v>3335.947648195051</v>
       </c>
       <c r="Q44" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="R44" t="n">
-        <v>3578.399498487686</v>
+        <v>3578.399498487685</v>
       </c>
       <c r="S44" t="n">
-        <v>3510.457997295804</v>
+        <v>3510.457997295803</v>
       </c>
       <c r="T44" t="n">
         <v>3384.405509564951</v>
@@ -7719,31 +7719,31 @@
         <v>218.995960181891</v>
       </c>
       <c r="H45" t="n">
-        <v>117.946982721178</v>
+        <v>117.9469827211779</v>
       </c>
       <c r="I45" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J45" t="n">
         <v>188.952068299467</v>
       </c>
       <c r="K45" t="n">
-        <v>516.2009979406712</v>
+        <v>516.200997940671</v>
       </c>
       <c r="L45" t="n">
-        <v>750.174815019943</v>
+        <v>1017.631965156348</v>
       </c>
       <c r="M45" t="n">
-        <v>1387.300324430164</v>
+        <v>1263.94906408783</v>
       </c>
       <c r="N45" t="n">
-        <v>2056.99566363581</v>
+        <v>1459.095452693357</v>
       </c>
       <c r="O45" t="n">
-        <v>2213.296689069574</v>
+        <v>2005.320174211083</v>
       </c>
       <c r="P45" t="n">
-        <v>2634.687116432242</v>
+        <v>2426.710601573751</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.701173351451</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.2381080837222</v>
+        <v>511.2381080837226</v>
       </c>
       <c r="C46" t="n">
-        <v>431.1619675162204</v>
+        <v>431.1619675162208</v>
       </c>
       <c r="D46" t="n">
-        <v>369.9053704642898</v>
+        <v>369.9053704642902</v>
       </c>
       <c r="E46" t="n">
-        <v>310.8523192423018</v>
+        <v>310.8523192423022</v>
       </c>
       <c r="F46" t="n">
-        <v>252.8224141047966</v>
+        <v>252.822414104797</v>
       </c>
       <c r="G46" t="n">
-        <v>173.0640662527983</v>
+        <v>173.0640662527987</v>
       </c>
       <c r="H46" t="n">
-        <v>107.5668181201006</v>
+        <v>107.566818120101</v>
       </c>
       <c r="I46" t="n">
-        <v>71.56798996975373</v>
+        <v>71.5679899697537</v>
       </c>
       <c r="J46" t="n">
-        <v>140.340831132902</v>
+        <v>140.3408311329021</v>
       </c>
       <c r="K46" t="n">
         <v>327.1658377443064</v>
@@ -7813,10 +7813,10 @@
         <v>597.4082601387865</v>
       </c>
       <c r="M46" t="n">
-        <v>887.9958388762595</v>
+        <v>887.9958388762594</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.179357529165</v>
+        <v>1179.179357529164</v>
       </c>
       <c r="O46" t="n">
         <v>1438.766591859338</v>
@@ -7840,16 +7840,16 @@
         <v>1241.470149396331</v>
       </c>
       <c r="V46" t="n">
-        <v>1075.645703550849</v>
+        <v>1075.64570355085</v>
       </c>
       <c r="W46" t="n">
-        <v>875.088575874294</v>
+        <v>875.0885758742942</v>
       </c>
       <c r="X46" t="n">
-        <v>735.9590673366818</v>
+        <v>735.959067336682</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.0265305535568</v>
+        <v>604.0265305535572</v>
       </c>
     </row>
   </sheetData>
@@ -8064,19 +8064,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>185.4193833999402</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
-        <v>133.9744074143302</v>
+        <v>247.3552705420797</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8295,16 +8295,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>292.5201795090609</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,10 +8532,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>299.7352039419416</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
         <v>383.1483227996774</v>
@@ -8544,7 +8544,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P9" t="n">
         <v>133.9744074143302</v>
@@ -8766,13 +8766,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>7.521259249789281</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>94.65415121353226</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8781,7 +8781,7 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>369.9466943996422</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -9012,7 +9012,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>465.7050637499999</v>
+        <v>70.94909356945328</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -9021,10 +9021,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>133.7840861952398</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,16 +9243,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>66.14924397432802</v>
+        <v>70.94909356945328</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9407,7 +9407,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928333</v>
       </c>
       <c r="N20" t="n">
         <v>437.3469244119842</v>
@@ -9483,16 +9483,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>70.9490935694532</v>
       </c>
       <c r="O21" t="n">
-        <v>369.9466943996422</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
         <v>318.4627686399372</v>
@@ -9720,19 +9720,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>389.4118622093904</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>209.0670886960259</v>
       </c>
       <c r="Q24" t="n">
         <v>210.0772877358491</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>70.94909356945328</v>
       </c>
       <c r="N27" t="n">
-        <v>335.4143305820319</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,19 +10191,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>249.9342755152081</v>
+        <v>70.94909356945345</v>
       </c>
       <c r="N30" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
         <v>318.4627686399372</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>120.3975348414667</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
@@ -10443,7 +10443,7 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>48.30403112841603</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>78.28517654958407</v>
       </c>
       <c r="K35" t="n">
         <v>324.1454125711647</v>
@@ -10604,7 +10604,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>121.5035520374166</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
         <v>65.71641987298243</v>
@@ -10671,13 +10671,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>464.8114128461844</v>
+        <v>70.94909356945453</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
@@ -10823,13 +10823,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>233.3339739486758</v>
       </c>
       <c r="L38" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>358.7020948703438</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10899,19 +10899,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>7.521259249789338</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
-        <v>184.7190200649483</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>70.94909356945516</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10920,7 +10920,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11066,10 +11066,10 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M41" t="n">
-        <v>358.7020948703438</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>346.5354857894952</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11136,13 +11136,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.521259249789381</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>465.7050637499999</v>
@@ -11151,13 +11151,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
-        <v>312.7692681409956</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>143.8518332457668</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11303,13 +11303,13 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>358.7020948703436</v>
       </c>
       <c r="N44" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>289.9887426402568</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>100.6816077919388</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>70.94909356945516</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23258,7 +23258,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>348.7458981693648</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23267,16 +23267,16 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>390.3490521400687</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>396.4153910239922</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>102.9513911963141</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>138.7065345151213</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>196.2364111887023</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>148.3527061093405</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>243.5674837240378</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23416,28 +23416,28 @@
         <v>163.3049865802945</v>
       </c>
       <c r="C13" t="n">
-        <v>150.7198274969851</v>
+        <v>150.719827496985</v>
       </c>
       <c r="D13" t="n">
-        <v>132.0884794165696</v>
+        <v>132.0884794165695</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>129.9069690449263</v>
       </c>
       <c r="F13" t="n">
-        <v>128.8940544212885</v>
+        <v>128.8940544212884</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>150.4052127086365</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>136.2867239865289</v>
       </c>
       <c r="I13" t="n">
         <v>107.083288204002</v>
       </c>
       <c r="J13" t="n">
-        <v>1.976932008745877</v>
+        <v>1.976932008745806</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>113.1601114455689</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.038077768421</v>
       </c>
       <c r="T13" t="n">
-        <v>206.894747348054</v>
+        <v>98.40982198339468</v>
       </c>
       <c r="U13" t="n">
-        <v>269.7342844976747</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>235.6106497221852</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>209.1826617873944</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>97.84223333262109</v>
+        <v>202.057659750452</v>
       </c>
     </row>
     <row r="14">
@@ -23498,13 +23498,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>149.7729532280683</v>
+        <v>146.7843086220335</v>
       </c>
       <c r="E14" t="n">
-        <v>359.4697570710255</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>384.4154327404752</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>97.01777179672064</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,10 +23543,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>132.7729151155277</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>190.3027917891088</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>326.7803557161767</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>157.371367180701</v>
       </c>
       <c r="C16" t="n">
-        <v>144.7862080973916</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>126.154860016976</v>
       </c>
       <c r="E16" t="n">
-        <v>123.9733496453329</v>
+        <v>123.9733496453328</v>
       </c>
       <c r="F16" t="n">
-        <v>122.960435021695</v>
+        <v>122.9604350216949</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>144.471593309043</v>
       </c>
       <c r="H16" t="n">
-        <v>130.3531045869355</v>
+        <v>96.04526335539228</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>101.1496688044085</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>107.2264920459754</v>
       </c>
       <c r="S16" t="n">
         <v>183.1044583688276</v>
       </c>
       <c r="T16" t="n">
-        <v>200.9611279484605</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>188.3804590952138</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>264.0623853353547</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>203.2490423878009</v>
+        <v>203.2490423878008</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>196.1240403508585</v>
       </c>
     </row>
     <row r="17">
@@ -23890,10 +23890,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>74.88458290082544</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>66.57765048100492</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23902,10 +23902,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>70.68633833086537</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.77589505096424</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>66.57765048100489</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>11.50135741510166</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>63.38322548572378</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24184,7 +24184,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>141.4622333818295</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24370,10 +24370,10 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.39614010936177</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>63.38322548572384</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>13.68286778674603</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>4.915402566942149</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.5468308148873</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>13.68286778674342</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.39614010936164</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.38322548572371</v>
       </c>
       <c r="G31" t="n">
-        <v>84.89438377307182</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>41.57245926843729</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24901,7 +24901,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>14.9953903403194</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1251408.33787435</v>
+        <v>1251408.337874351</v>
       </c>
     </row>
     <row r="7">
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="C2" t="n">
         <v>41052.08849321417</v>
       </c>
-      <c r="C2" t="n">
-        <v>41052.08849321415</v>
-      </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321414</v>
       </c>
       <c r="E2" t="n">
-        <v>35097.09343198201</v>
+        <v>35097.09343198199</v>
       </c>
       <c r="F2" t="n">
-        <v>35621.13239933225</v>
+        <v>35621.13239933224</v>
       </c>
       <c r="G2" t="n">
-        <v>40882.33381315597</v>
+        <v>40882.33381315599</v>
       </c>
       <c r="H2" t="n">
+        <v>40882.33381315598</v>
+      </c>
+      <c r="I2" t="n">
         <v>40882.33381315593</v>
-      </c>
-      <c r="I2" t="n">
-        <v>40882.33381315594</v>
       </c>
       <c r="J2" t="n">
         <v>41052.08849321413</v>
@@ -26341,19 +26341,19 @@
         <v>40882.33381315599</v>
       </c>
       <c r="L2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321413</v>
       </c>
       <c r="M2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
       <c r="N2" t="n">
+        <v>41052.08849321416</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321415</v>
       </c>
-      <c r="O2" t="n">
-        <v>41052.08849321416</v>
-      </c>
       <c r="P2" t="n">
-        <v>41052.08849321414</v>
+        <v>41052.08849321415</v>
       </c>
     </row>
     <row r="3">
@@ -26372,37 +26372,37 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>686923.8703388998</v>
+        <v>686923.8703388999</v>
       </c>
       <c r="F3" t="n">
-        <v>4746.895519674797</v>
+        <v>4746.895519674786</v>
       </c>
       <c r="G3" t="n">
-        <v>47661.767628777</v>
+        <v>47661.76762877688</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>81028.43300009528</v>
+        <v>81028.43300009535</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>52408.6631484518</v>
+        <v>52408.66314845172</v>
       </c>
       <c r="M3" t="n">
-        <v>162876.1423098132</v>
+        <v>162876.1423098131</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>17968.49040098904</v>
+        <v>17968.49040098914</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>320962.9529903556</v>
       </c>
       <c r="E4" t="n">
-        <v>57699.02565849425</v>
+        <v>57699.02565849431</v>
       </c>
       <c r="F4" t="n">
-        <v>63695.14819959489</v>
+        <v>63695.14819959497</v>
       </c>
       <c r="G4" t="n">
-        <v>123900.6425294669</v>
+        <v>123900.6425294668</v>
       </c>
       <c r="H4" t="n">
         <v>123900.6425294669</v>
@@ -26476,7 +26476,7 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>69975.10274016713</v>
+        <v>69975.10274016715</v>
       </c>
       <c r="F5" t="n">
         <v>70473.93618947157</v>
@@ -26500,16 +26500,16 @@
         <v>75981.36606725556</v>
       </c>
       <c r="M5" t="n">
-        <v>74586.94716073389</v>
+        <v>74586.94716073388</v>
       </c>
       <c r="N5" t="n">
-        <v>74586.94716073391</v>
+        <v>74586.94716073388</v>
       </c>
       <c r="O5" t="n">
-        <v>74586.94716073391</v>
+        <v>74586.94716073388</v>
       </c>
       <c r="P5" t="n">
-        <v>74586.94716073391</v>
+        <v>74586.94716073388</v>
       </c>
     </row>
     <row r="6">
@@ -26528,37 +26528,37 @@
         <v>-328192.1332609031</v>
       </c>
       <c r="E6" t="n">
-        <v>-779500.9053055792</v>
+        <v>-779798.655058641</v>
       </c>
       <c r="F6" t="n">
-        <v>-103294.847509409</v>
+        <v>-103566.3953141032</v>
       </c>
       <c r="G6" t="n">
-        <v>-206162.6089630391</v>
+        <v>-206171.0966970417</v>
       </c>
       <c r="H6" t="n">
-        <v>-158500.841334262</v>
+        <v>-158509.329068265</v>
       </c>
       <c r="I6" t="n">
-        <v>-158500.841334262</v>
+        <v>-158509.329068265</v>
       </c>
       <c r="J6" t="n">
-        <v>-241810.8095911213</v>
+        <v>-241810.8095911214</v>
       </c>
       <c r="K6" t="n">
-        <v>-158500.841334262</v>
+        <v>-158509.329068265</v>
       </c>
       <c r="L6" t="n">
-        <v>-213191.0397394778</v>
+        <v>-213191.0397394777</v>
       </c>
       <c r="M6" t="n">
         <v>-325393.4205173875</v>
       </c>
       <c r="N6" t="n">
-        <v>-162517.2782075743</v>
+        <v>-162517.2782075744</v>
       </c>
       <c r="O6" t="n">
-        <v>-180485.7686085633</v>
+        <v>-180485.7686085635</v>
       </c>
       <c r="P6" t="n">
         <v>-162517.2782075743</v>
@@ -26692,19 +26692,19 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="F2" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="G2" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="H2" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="I2" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="J2" t="n">
         <v>87.97144193680101</v>
@@ -26713,19 +26713,19 @@
         <v>82.03782253720753</v>
       </c>
       <c r="L2" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="M2" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N2" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="O2" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="P2" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
     <row r="3">
@@ -26768,16 +26768,16 @@
         <v>587.1377812631262</v>
       </c>
       <c r="M3" t="n">
-        <v>587.1377812631259</v>
+        <v>587.137781263126</v>
       </c>
       <c r="N3" t="n">
-        <v>587.137781263126</v>
+        <v>587.1377812631258</v>
       </c>
       <c r="O3" t="n">
-        <v>587.137781263126</v>
+        <v>587.1377812631258</v>
       </c>
       <c r="P3" t="n">
-        <v>587.137781263126</v>
+        <v>587.1377812631258</v>
       </c>
     </row>
     <row r="4">
@@ -26799,16 +26799,16 @@
         <v>917.5343961107645</v>
       </c>
       <c r="F4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="G4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="H4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107648</v>
       </c>
       <c r="I4" t="n">
-        <v>917.5343961107645</v>
+        <v>917.5343961107646</v>
       </c>
       <c r="J4" t="n">
         <v>917.5343961107645</v>
@@ -26820,16 +26820,16 @@
         <v>917.5343961107645</v>
       </c>
       <c r="M4" t="n">
-        <v>894.5998746219216</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="N4" t="n">
-        <v>894.5998746219216</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="O4" t="n">
-        <v>894.5998746219216</v>
+        <v>894.5998746219212</v>
       </c>
       <c r="P4" t="n">
-        <v>894.5998746219216</v>
+        <v>894.5998746219212</v>
       </c>
     </row>
   </sheetData>
@@ -26914,28 +26914,28 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="F2" t="n">
-        <v>5.933619399593496</v>
+        <v>5.933619399593482</v>
       </c>
       <c r="G2" t="n">
-        <v>59.57720953597125</v>
+        <v>59.57720953597111</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>22.4606130012363</v>
+        <v>22.46061300123644</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>65.51082893556475</v>
+        <v>65.51082893556465</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.4606130012363</v>
+        <v>22.46061300123642</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.5855857442624</v>
+        <v>653.5855857442622</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="K2" t="n">
-        <v>5.933619399593496</v>
+        <v>5.933619399593482</v>
       </c>
       <c r="L2" t="n">
-        <v>59.57720953597125</v>
+        <v>59.57720953597111</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>22.4606130012363</v>
+        <v>22.46061300123644</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,10 +27379,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -27394,10 +27394,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>112.8606504630033</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>42.30927575296769</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27421,7 +27421,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -27430,10 +27430,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27461,16 +27461,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27479,7 +27479,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27512,19 +27512,19 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>76.4535625287306</v>
       </c>
       <c r="W3" t="n">
-        <v>132.5721340598014</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27540,7 +27540,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>15.42850543284433</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27555,7 +27555,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J4" t="n">
         <v>93.35918011667277</v>
@@ -27616,19 +27616,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>201.9656575144215</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>339.4748021157671</v>
@@ -27637,7 +27637,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>151.6518282560894</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27707,7 +27707,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
@@ -27740,10 +27740,10 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
@@ -27752,16 +27752,16 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>247.8610253924609</v>
       </c>
       <c r="X6" t="n">
-        <v>40.32364796962756</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27792,13 +27792,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>115.622687458563</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27828,7 +27828,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
-        <v>286.3190293564909</v>
+        <v>178.1229943321122</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27850,22 +27850,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
+        <v>231.8333861825618</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
         <v>339.4748021157671</v>
@@ -27898,7 +27898,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
@@ -27910,13 +27910,13 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>294.1520250787113</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27935,10 +27935,10 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
         <v>145.0692123933839</v>
@@ -27947,13 +27947,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>69.32498062560293</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27977,19 +27977,19 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>197.7981193194529</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -27998,7 +27998,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28032,10 +28032,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28062,13 +28062,13 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T10" t="n">
-        <v>188.1178019595862</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U10" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>143.9416082994493</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="C11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="D11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="E11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="F11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="G11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="H11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="I11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="T11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="U11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="V11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="W11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="X11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="Y11" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="C13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="D13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="E13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="F13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="G13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="H13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="I13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="J13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="K13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="L13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="M13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="N13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="O13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="P13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="Q13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="R13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="S13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="T13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="U13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="V13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="W13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="X13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
       <c r="Y13" t="n">
-        <v>16.52699360164276</v>
+        <v>16.52699360164283</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="C14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="D14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="E14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="F14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="G14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="H14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="I14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="T14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="U14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="V14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="W14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="X14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="Y14" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="C16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="D16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="E16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="F16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="G16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="H16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="I16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="J16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="K16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="L16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="M16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="N16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="O16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="P16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="Q16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="R16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="S16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="T16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="U16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="V16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="W16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="X16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
       <c r="Y16" t="n">
-        <v>22.46061300123625</v>
+        <v>22.46061300123632</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="C17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="D17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="E17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="F17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="G17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="H17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="I17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="T17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="U17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="V17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="W17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="X17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="Y17" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="C19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="D19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="E19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="F19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="G19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="H19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="I19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="J19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="K19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="L19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="M19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="N19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="O19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="P19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="Q19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="R19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="S19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="T19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="U19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="V19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="W19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="X19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
       <c r="Y19" t="n">
-        <v>82.0378225372075</v>
+        <v>82.03782253720743</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="C20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="D20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="E20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="F20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="G20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="H20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="I20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.600600746094955</v>
       </c>
       <c r="S20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="T20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="U20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="V20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="W20" t="n">
-        <v>82.03782253720721</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="X20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="Y20" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="C22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="D22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="E22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="F22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="G22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="H22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="I22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="J22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="K22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="L22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="M22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="N22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="O22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="P22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="Q22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="R22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="S22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="T22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="U22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="V22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="W22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="X22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
       <c r="Y22" t="n">
-        <v>82.03782253720748</v>
+        <v>82.03782253720746</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="C23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="D23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="E23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="F23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="G23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="H23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="I23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29083,28 +29083,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>1.600600746094955</v>
+        <v>1.600600746097206</v>
       </c>
       <c r="S23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="T23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="U23" t="n">
-        <v>82.03782253720723</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="V23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="W23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="X23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="Y23" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="C25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="D25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="E25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="F25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="G25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="H25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="I25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="J25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="K25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="L25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="M25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="N25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="O25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="P25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="Q25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="R25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="S25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="T25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="U25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="V25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="W25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="X25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
       <c r="Y25" t="n">
-        <v>82.03782253720748</v>
+        <v>82.0378225372074</v>
       </c>
     </row>
     <row r="26">
@@ -29320,7 +29320,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>1.600600746094955</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>87.97144193680101</v>
@@ -29329,13 +29329,13 @@
         <v>87.97144193680101</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>0.567751688994548</v>
       </c>
       <c r="V26" t="n">
         <v>87.97144193680101</v>
       </c>
       <c r="W26" t="n">
-        <v>86.93859287970059</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X26" t="n">
         <v>87.97144193680101</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="C32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="D32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="E32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="F32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="G32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="H32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="I32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0.5677516889936078</v>
+        <v>0.5677516889931578</v>
       </c>
       <c r="S32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="T32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="U32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="V32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="W32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="X32" t="n">
-        <v>87.97144193680103</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="C34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="D34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="E34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="F34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="G34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="H34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="I34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="J34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="K34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="L34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="M34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="N34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="O34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="P34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="R34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="S34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="T34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="U34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="V34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="W34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="X34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680107</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.60060074609504</v>
+        <v>1.600600746096362</v>
       </c>
       <c r="S35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V35" t="n">
-        <v>87.97144193679972</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="C37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="D37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="E37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="F37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="G37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="H37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="I37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="J37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="K37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="L37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="M37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="N37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="O37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="P37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="R37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="S37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="T37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="U37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="V37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="W37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="X37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.97144193680103</v>
+        <v>87.97144193680101</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="C38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="D38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="E38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="F38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="G38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="H38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="I38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.600600746095012</v>
+        <v>1.600600746095068</v>
       </c>
       <c r="S38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="T38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="U38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="V38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="W38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="X38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="C40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="D40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="E40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="F40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="G40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="H40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="I40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="J40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="K40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="L40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="M40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="N40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="O40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="P40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="R40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="S40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="T40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="U40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="V40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="W40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="X40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680109</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="C41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="D41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="E41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="F41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="G41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="H41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="I41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.600600746095012</v>
+        <v>1.600600746095068</v>
       </c>
       <c r="S41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="T41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="U41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="V41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="W41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="X41" t="n">
-        <v>87.97144193680077</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="C43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="D43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="E43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="F43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="G43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="H43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="I43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="J43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="K43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="L43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="M43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="N43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="O43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="P43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="R43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="S43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="T43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="U43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="V43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="W43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="X43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.97144193680101</v>
+        <v>87.97144193680107</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="C44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="D44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="E44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="F44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="G44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="H44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="I44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.600600746095012</v>
+        <v>1.600600746095068</v>
       </c>
       <c r="S44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="T44" t="n">
-        <v>87.97144193679966</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="U44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="V44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="W44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="X44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="C46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="D46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="E46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="F46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="G46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="H46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="I46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="J46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="K46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="L46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="M46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="N46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="O46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="P46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="R46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="S46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="T46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="U46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="V46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="W46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="X46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.97144193680106</v>
+        <v>87.97144193680104</v>
       </c>
     </row>
   </sheetData>
@@ -33649,22 +33649,22 @@
         <v>2.360352889500002</v>
       </c>
       <c r="H35" t="n">
-        <v>24.1729640295919</v>
+        <v>24.17296402959191</v>
       </c>
       <c r="I35" t="n">
-        <v>90.99750477244892</v>
+        <v>90.99750477244893</v>
       </c>
       <c r="J35" t="n">
         <v>200.332001055201</v>
       </c>
       <c r="K35" t="n">
-        <v>300.2457388677361</v>
+        <v>300.2457388677362</v>
       </c>
       <c r="L35" t="n">
-        <v>372.4813886097719</v>
+        <v>372.481388609772</v>
       </c>
       <c r="M35" t="n">
-        <v>414.4573143084175</v>
+        <v>414.4573143084176</v>
       </c>
       <c r="N35" t="n">
         <v>421.1636669557095</v>
@@ -33673,22 +33673,22 @@
         <v>397.6929079107438</v>
       </c>
       <c r="P35" t="n">
-        <v>339.4216959512124</v>
+        <v>339.4216959512125</v>
       </c>
       <c r="Q35" t="n">
-        <v>254.8915580959935</v>
+        <v>254.8915580959936</v>
       </c>
       <c r="R35" t="n">
-        <v>148.2685171950546</v>
+        <v>148.2685171950547</v>
       </c>
       <c r="S35" t="n">
-        <v>53.78654146948135</v>
+        <v>53.78654146948136</v>
       </c>
       <c r="T35" t="n">
-        <v>10.33244477378626</v>
+        <v>10.33244477378627</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1888282311600001</v>
+        <v>0.1888282311600002</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,43 +33731,43 @@
         <v>12.1969565503906</v>
       </c>
       <c r="I36" t="n">
-        <v>43.48143002750508</v>
+        <v>43.4814300275051</v>
       </c>
       <c r="J36" t="n">
-        <v>119.3163674168773</v>
+        <v>119.3163674168774</v>
       </c>
       <c r="K36" t="n">
         <v>203.930676346835</v>
       </c>
       <c r="L36" t="n">
-        <v>274.2099609568967</v>
+        <v>274.2099609568968</v>
       </c>
       <c r="M36" t="n">
-        <v>319.9900907884036</v>
+        <v>319.9900907884037</v>
       </c>
       <c r="N36" t="n">
-        <v>328.4592763313406</v>
+        <v>328.4592763313407</v>
       </c>
       <c r="O36" t="n">
-        <v>300.4760681149131</v>
+        <v>300.4760681149132</v>
       </c>
       <c r="P36" t="n">
         <v>241.1585351003206</v>
       </c>
       <c r="Q36" t="n">
-        <v>161.2080942064341</v>
+        <v>161.2080942064342</v>
       </c>
       <c r="R36" t="n">
-        <v>78.41058897698881</v>
+        <v>78.41058897698883</v>
       </c>
       <c r="S36" t="n">
-        <v>23.45781607216355</v>
+        <v>23.45781607216356</v>
       </c>
       <c r="T36" t="n">
         <v>5.090373782837855</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08308553508440465</v>
+        <v>0.08308553508440467</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,16 +33804,16 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.058773048179407</v>
+        <v>1.058773048179408</v>
       </c>
       <c r="H37" t="n">
-        <v>9.413454919267828</v>
+        <v>9.41345491926783</v>
       </c>
       <c r="I37" t="n">
         <v>31.84019312161346</v>
       </c>
       <c r="J37" t="n">
-        <v>74.8552545062841</v>
+        <v>74.85525450628411</v>
       </c>
       <c r="K37" t="n">
         <v>123.0101777793893</v>
@@ -33822,7 +33822,7 @@
         <v>157.4106766356912</v>
       </c>
       <c r="M37" t="n">
-        <v>165.9674879068865</v>
+        <v>165.9674879068866</v>
       </c>
       <c r="N37" t="n">
         <v>162.0211520000362</v>
@@ -33834,19 +33834,19 @@
         <v>128.0537875725348</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.65780497073202</v>
+        <v>88.65780497073203</v>
       </c>
       <c r="R37" t="n">
-        <v>47.6062863299577</v>
+        <v>47.60628632995771</v>
       </c>
       <c r="S37" t="n">
-        <v>18.45152666690839</v>
+        <v>18.4515266669084</v>
       </c>
       <c r="T37" t="n">
-        <v>4.523848478584739</v>
+        <v>4.52384847858474</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05775125717342228</v>
+        <v>0.0577512571734223</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.360352889500002</v>
+        <v>2.360352889500001</v>
       </c>
       <c r="H38" t="n">
-        <v>24.17296402959191</v>
+        <v>24.1729640295919</v>
       </c>
       <c r="I38" t="n">
-        <v>90.99750477244893</v>
+        <v>90.99750477244889</v>
       </c>
       <c r="J38" t="n">
-        <v>200.332001055201</v>
+        <v>200.3320010552009</v>
       </c>
       <c r="K38" t="n">
-        <v>300.2457388677362</v>
+        <v>300.2457388677361</v>
       </c>
       <c r="L38" t="n">
-        <v>372.481388609772</v>
+        <v>372.4813886097718</v>
       </c>
       <c r="M38" t="n">
-        <v>414.4573143084176</v>
+        <v>414.4573143084174</v>
       </c>
       <c r="N38" t="n">
-        <v>421.1636669557095</v>
+        <v>421.1636669557093</v>
       </c>
       <c r="O38" t="n">
-        <v>397.6929079107438</v>
+        <v>397.6929079107437</v>
       </c>
       <c r="P38" t="n">
-        <v>339.4216959512125</v>
+        <v>339.4216959512124</v>
       </c>
       <c r="Q38" t="n">
-        <v>254.8915580959936</v>
+        <v>254.8915580959935</v>
       </c>
       <c r="R38" t="n">
-        <v>148.2685171950547</v>
+        <v>148.2685171950546</v>
       </c>
       <c r="S38" t="n">
-        <v>53.78654146948136</v>
+        <v>53.78654146948134</v>
       </c>
       <c r="T38" t="n">
-        <v>10.33244477378627</v>
+        <v>10.33244477378626</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1888282311600002</v>
+        <v>0.1888282311600001</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>12.1969565503906</v>
       </c>
       <c r="I39" t="n">
-        <v>43.4814300275051</v>
+        <v>43.48143002750508</v>
       </c>
       <c r="J39" t="n">
-        <v>119.3163674168774</v>
+        <v>119.3163674168773</v>
       </c>
       <c r="K39" t="n">
         <v>203.930676346835</v>
       </c>
       <c r="L39" t="n">
-        <v>274.2099609568968</v>
+        <v>274.2099609568967</v>
       </c>
       <c r="M39" t="n">
-        <v>319.9900907884037</v>
+        <v>319.9900907884035</v>
       </c>
       <c r="N39" t="n">
-        <v>328.4592763313407</v>
+        <v>328.4592763313406</v>
       </c>
       <c r="O39" t="n">
-        <v>300.4760681149132</v>
+        <v>300.4760681149131</v>
       </c>
       <c r="P39" t="n">
-        <v>241.1585351003206</v>
+        <v>241.1585351003205</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.2080942064342</v>
+        <v>161.2080942064341</v>
       </c>
       <c r="R39" t="n">
-        <v>78.41058897698883</v>
+        <v>78.41058897698879</v>
       </c>
       <c r="S39" t="n">
-        <v>23.45781607216356</v>
+        <v>23.45781607216355</v>
       </c>
       <c r="T39" t="n">
-        <v>5.090373782837855</v>
+        <v>5.090373782837853</v>
       </c>
       <c r="U39" t="n">
-        <v>0.08308553508440467</v>
+        <v>0.08308553508440464</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,28 +34041,28 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.058773048179408</v>
+        <v>1.058773048179407</v>
       </c>
       <c r="H40" t="n">
-        <v>9.41345491926783</v>
+        <v>9.413454919267826</v>
       </c>
       <c r="I40" t="n">
-        <v>31.84019312161346</v>
+        <v>31.84019312161345</v>
       </c>
       <c r="J40" t="n">
-        <v>74.85525450628411</v>
+        <v>74.85525450628408</v>
       </c>
       <c r="K40" t="n">
         <v>123.0101777793893</v>
       </c>
       <c r="L40" t="n">
-        <v>157.4106766356912</v>
+        <v>157.4106766356911</v>
       </c>
       <c r="M40" t="n">
-        <v>165.9674879068866</v>
+        <v>165.9674879068865</v>
       </c>
       <c r="N40" t="n">
-        <v>162.0211520000362</v>
+        <v>162.0211520000361</v>
       </c>
       <c r="O40" t="n">
         <v>149.6527577553948</v>
@@ -34071,19 +34071,19 @@
         <v>128.0537875725348</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.65780497073203</v>
+        <v>88.657804970732</v>
       </c>
       <c r="R40" t="n">
-        <v>47.60628632995771</v>
+        <v>47.60628632995769</v>
       </c>
       <c r="S40" t="n">
-        <v>18.4515266669084</v>
+        <v>18.45152666690839</v>
       </c>
       <c r="T40" t="n">
-        <v>4.52384847858474</v>
+        <v>4.523848478584738</v>
       </c>
       <c r="U40" t="n">
-        <v>0.0577512571734223</v>
+        <v>0.05775125717342227</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.360352889500002</v>
+        <v>2.360352889500001</v>
       </c>
       <c r="H41" t="n">
-        <v>24.17296402959191</v>
+        <v>24.1729640295919</v>
       </c>
       <c r="I41" t="n">
-        <v>90.99750477244893</v>
+        <v>90.99750477244889</v>
       </c>
       <c r="J41" t="n">
-        <v>200.332001055201</v>
+        <v>200.3320010552009</v>
       </c>
       <c r="K41" t="n">
-        <v>300.2457388677362</v>
+        <v>300.2457388677361</v>
       </c>
       <c r="L41" t="n">
-        <v>372.481388609772</v>
+        <v>372.4813886097718</v>
       </c>
       <c r="M41" t="n">
-        <v>414.4573143084176</v>
+        <v>414.4573143084174</v>
       </c>
       <c r="N41" t="n">
-        <v>421.1636669557095</v>
+        <v>421.1636669557093</v>
       </c>
       <c r="O41" t="n">
-        <v>397.6929079107438</v>
+        <v>397.6929079107437</v>
       </c>
       <c r="P41" t="n">
-        <v>339.4216959512125</v>
+        <v>339.4216959512124</v>
       </c>
       <c r="Q41" t="n">
-        <v>254.8915580959936</v>
+        <v>254.8915580959935</v>
       </c>
       <c r="R41" t="n">
-        <v>148.2685171950547</v>
+        <v>148.2685171950546</v>
       </c>
       <c r="S41" t="n">
-        <v>53.78654146948136</v>
+        <v>53.78654146948134</v>
       </c>
       <c r="T41" t="n">
-        <v>10.33244477378627</v>
+        <v>10.33244477378626</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1888282311600002</v>
+        <v>0.1888282311600001</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>12.1969565503906</v>
       </c>
       <c r="I42" t="n">
-        <v>43.4814300275051</v>
+        <v>43.48143002750508</v>
       </c>
       <c r="J42" t="n">
-        <v>119.3163674168774</v>
+        <v>119.3163674168773</v>
       </c>
       <c r="K42" t="n">
         <v>203.930676346835</v>
       </c>
       <c r="L42" t="n">
-        <v>274.2099609568968</v>
+        <v>274.2099609568967</v>
       </c>
       <c r="M42" t="n">
-        <v>319.9900907884037</v>
+        <v>319.9900907884035</v>
       </c>
       <c r="N42" t="n">
-        <v>328.4592763313407</v>
+        <v>328.4592763313406</v>
       </c>
       <c r="O42" t="n">
-        <v>300.4760681149132</v>
+        <v>300.4760681149131</v>
       </c>
       <c r="P42" t="n">
-        <v>241.1585351003206</v>
+        <v>241.1585351003205</v>
       </c>
       <c r="Q42" t="n">
-        <v>161.2080942064342</v>
+        <v>161.2080942064341</v>
       </c>
       <c r="R42" t="n">
-        <v>78.41058897698883</v>
+        <v>78.41058897698879</v>
       </c>
       <c r="S42" t="n">
-        <v>23.45781607216356</v>
+        <v>23.45781607216355</v>
       </c>
       <c r="T42" t="n">
-        <v>5.090373782837855</v>
+        <v>5.090373782837853</v>
       </c>
       <c r="U42" t="n">
-        <v>0.08308553508440467</v>
+        <v>0.08308553508440464</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,28 +34278,28 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.058773048179408</v>
+        <v>1.058773048179407</v>
       </c>
       <c r="H43" t="n">
-        <v>9.41345491926783</v>
+        <v>9.413454919267826</v>
       </c>
       <c r="I43" t="n">
-        <v>31.84019312161346</v>
+        <v>31.84019312161345</v>
       </c>
       <c r="J43" t="n">
-        <v>74.85525450628411</v>
+        <v>74.85525450628408</v>
       </c>
       <c r="K43" t="n">
         <v>123.0101777793893</v>
       </c>
       <c r="L43" t="n">
-        <v>157.4106766356912</v>
+        <v>157.4106766356911</v>
       </c>
       <c r="M43" t="n">
-        <v>165.9674879068866</v>
+        <v>165.9674879068865</v>
       </c>
       <c r="N43" t="n">
-        <v>162.0211520000362</v>
+        <v>162.0211520000361</v>
       </c>
       <c r="O43" t="n">
         <v>149.6527577553948</v>
@@ -34308,19 +34308,19 @@
         <v>128.0537875725348</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.65780497073203</v>
+        <v>88.657804970732</v>
       </c>
       <c r="R43" t="n">
-        <v>47.60628632995771</v>
+        <v>47.60628632995769</v>
       </c>
       <c r="S43" t="n">
-        <v>18.4515266669084</v>
+        <v>18.45152666690839</v>
       </c>
       <c r="T43" t="n">
-        <v>4.52384847858474</v>
+        <v>4.523848478584738</v>
       </c>
       <c r="U43" t="n">
-        <v>0.0577512571734223</v>
+        <v>0.05775125717342227</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.360352889500002</v>
+        <v>2.360352889500001</v>
       </c>
       <c r="H44" t="n">
-        <v>24.17296402959191</v>
+        <v>24.1729640295919</v>
       </c>
       <c r="I44" t="n">
-        <v>90.99750477244893</v>
+        <v>90.99750477244889</v>
       </c>
       <c r="J44" t="n">
-        <v>200.332001055201</v>
+        <v>200.3320010552009</v>
       </c>
       <c r="K44" t="n">
-        <v>300.2457388677362</v>
+        <v>300.2457388677361</v>
       </c>
       <c r="L44" t="n">
-        <v>372.481388609772</v>
+        <v>372.4813886097718</v>
       </c>
       <c r="M44" t="n">
-        <v>414.4573143084176</v>
+        <v>414.4573143084174</v>
       </c>
       <c r="N44" t="n">
-        <v>421.1636669557095</v>
+        <v>421.1636669557093</v>
       </c>
       <c r="O44" t="n">
-        <v>397.6929079107438</v>
+        <v>397.6929079107437</v>
       </c>
       <c r="P44" t="n">
-        <v>339.4216959512125</v>
+        <v>339.4216959512124</v>
       </c>
       <c r="Q44" t="n">
-        <v>254.8915580959936</v>
+        <v>254.8915580959935</v>
       </c>
       <c r="R44" t="n">
-        <v>148.2685171950547</v>
+        <v>148.2685171950546</v>
       </c>
       <c r="S44" t="n">
-        <v>53.78654146948136</v>
+        <v>53.78654146948134</v>
       </c>
       <c r="T44" t="n">
-        <v>10.33244477378627</v>
+        <v>10.33244477378626</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1888282311600002</v>
+        <v>0.1888282311600001</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>12.1969565503906</v>
       </c>
       <c r="I45" t="n">
-        <v>43.4814300275051</v>
+        <v>43.48143002750508</v>
       </c>
       <c r="J45" t="n">
-        <v>119.3163674168774</v>
+        <v>119.3163674168773</v>
       </c>
       <c r="K45" t="n">
         <v>203.930676346835</v>
       </c>
       <c r="L45" t="n">
-        <v>274.2099609568968</v>
+        <v>274.2099609568967</v>
       </c>
       <c r="M45" t="n">
-        <v>319.9900907884037</v>
+        <v>319.9900907884035</v>
       </c>
       <c r="N45" t="n">
-        <v>328.4592763313407</v>
+        <v>328.4592763313406</v>
       </c>
       <c r="O45" t="n">
-        <v>300.4760681149132</v>
+        <v>300.4760681149131</v>
       </c>
       <c r="P45" t="n">
-        <v>241.1585351003206</v>
+        <v>241.1585351003205</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.2080942064342</v>
+        <v>161.2080942064341</v>
       </c>
       <c r="R45" t="n">
-        <v>78.41058897698883</v>
+        <v>78.41058897698879</v>
       </c>
       <c r="S45" t="n">
-        <v>23.45781607216356</v>
+        <v>23.45781607216355</v>
       </c>
       <c r="T45" t="n">
-        <v>5.090373782837855</v>
+        <v>5.090373782837853</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08308553508440467</v>
+        <v>0.08308553508440464</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,28 +34515,28 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.058773048179408</v>
+        <v>1.058773048179407</v>
       </c>
       <c r="H46" t="n">
-        <v>9.41345491926783</v>
+        <v>9.413454919267826</v>
       </c>
       <c r="I46" t="n">
-        <v>31.84019312161346</v>
+        <v>31.84019312161345</v>
       </c>
       <c r="J46" t="n">
-        <v>74.85525450628411</v>
+        <v>74.85525450628408</v>
       </c>
       <c r="K46" t="n">
         <v>123.0101777793893</v>
       </c>
       <c r="L46" t="n">
-        <v>157.4106766356912</v>
+        <v>157.4106766356911</v>
       </c>
       <c r="M46" t="n">
-        <v>165.9674879068866</v>
+        <v>165.9674879068865</v>
       </c>
       <c r="N46" t="n">
-        <v>162.0211520000362</v>
+        <v>162.0211520000361</v>
       </c>
       <c r="O46" t="n">
         <v>149.6527577553948</v>
@@ -34545,19 +34545,19 @@
         <v>128.0537875725348</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.65780497073203</v>
+        <v>88.657804970732</v>
       </c>
       <c r="R46" t="n">
-        <v>47.60628632995771</v>
+        <v>47.60628632995769</v>
       </c>
       <c r="S46" t="n">
-        <v>18.4515266669084</v>
+        <v>18.45152666690839</v>
       </c>
       <c r="T46" t="n">
-        <v>4.52384847858474</v>
+        <v>4.523848478584738</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0577512571734223</v>
+        <v>0.05775125717342227</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34784,19 +34784,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>43.28534947792188</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="Q3" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35015,16 +35015,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>161.1784674257276</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,10 +35252,10 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>161.1808241620674</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
         <v>241.0142888776591</v>
@@ -35264,7 +35264,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35486,13 +35486,13 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>118.5697760906196</v>
       </c>
       <c r="K12" t="n">
         <v>330.5544743850547</v>
       </c>
       <c r="L12" t="n">
-        <v>230.309732390555</v>
+        <v>135.6555811770227</v>
       </c>
       <c r="M12" t="n">
         <v>643.5611206163853</v>
@@ -35501,7 +35501,7 @@
         <v>197.1175642480075</v>
       </c>
       <c r="O12" t="n">
-        <v>551.7421429471983</v>
+        <v>527.8265180701111</v>
       </c>
       <c r="P12" t="n">
         <v>425.6468963259276</v>
@@ -35571,22 +35571,22 @@
         <v>117.2676795551493</v>
       </c>
       <c r="L13" t="n">
-        <v>201.5276954976501</v>
+        <v>201.5276954976502</v>
       </c>
       <c r="M13" t="n">
-        <v>222.0783584703699</v>
+        <v>222.07835847037</v>
       </c>
       <c r="N13" t="n">
-        <v>222.6803179809076</v>
+        <v>222.6803179809077</v>
       </c>
       <c r="O13" t="n">
-        <v>190.7648792710773</v>
+        <v>190.7648792710774</v>
       </c>
       <c r="P13" t="n">
-        <v>141.8593404390711</v>
+        <v>141.8593404390712</v>
       </c>
       <c r="Q13" t="n">
-        <v>19.02275532068044</v>
+        <v>19.0227553206805</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35732,7 +35732,7 @@
         <v>506.4959264804819</v>
       </c>
       <c r="M15" t="n">
-        <v>643.5611206163853</v>
+        <v>248.8051504358388</v>
       </c>
       <c r="N15" t="n">
         <v>197.1175642480075</v>
@@ -35741,10 +35741,10 @@
         <v>551.7421429471983</v>
       </c>
       <c r="P15" t="n">
-        <v>240.9682138812302</v>
+        <v>425.6468963259276</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.22632012041271</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>3.95668739084762</v>
+        <v>3.956687390847691</v>
       </c>
       <c r="K16" t="n">
         <v>123.2012989547428</v>
@@ -35814,16 +35814,16 @@
         <v>228.0119778699635</v>
       </c>
       <c r="N16" t="n">
-        <v>228.6139373805011</v>
+        <v>228.6139373805012</v>
       </c>
       <c r="O16" t="n">
-        <v>196.6984986706708</v>
+        <v>196.6984986706709</v>
       </c>
       <c r="P16" t="n">
-        <v>147.7929598386646</v>
+        <v>147.7929598386647</v>
       </c>
       <c r="Q16" t="n">
-        <v>24.95637472027392</v>
+        <v>24.956374720274</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35963,16 +35963,16 @@
         <v>118.5697760906196</v>
       </c>
       <c r="K18" t="n">
-        <v>66.08923737247611</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L18" t="n">
         <v>506.4959264804819</v>
       </c>
       <c r="M18" t="n">
-        <v>244.0053008407135</v>
+        <v>248.8051504358388</v>
       </c>
       <c r="N18" t="n">
-        <v>676.459938591561</v>
+        <v>197.1175642480075</v>
       </c>
       <c r="O18" t="n">
         <v>551.7421429471983</v>
@@ -35981,7 +35981,7 @@
         <v>425.6468963259276</v>
       </c>
       <c r="Q18" t="n">
-        <v>21.22632012041271</v>
+        <v>231.3036078562618</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.53389692681887</v>
+        <v>63.5338969268188</v>
       </c>
       <c r="K19" t="n">
-        <v>182.778508490714</v>
+        <v>182.7785084907139</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0385244332149</v>
+        <v>267.0385244332148</v>
       </c>
       <c r="M19" t="n">
-        <v>287.5891874059347</v>
+        <v>287.5891874059346</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1911469164723</v>
+        <v>288.1911469164722</v>
       </c>
       <c r="O19" t="n">
-        <v>256.2757082066421</v>
+        <v>256.275708206642</v>
       </c>
       <c r="P19" t="n">
-        <v>207.3701693746359</v>
+        <v>207.3701693746358</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.53358425624518</v>
+        <v>84.53358425624511</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>554.3761881902353</v>
       </c>
       <c r="M20" t="n">
-        <v>633.6246145739775</v>
+        <v>633.6246145739783</v>
       </c>
       <c r="N20" t="n">
         <v>629.0975277711029</v>
@@ -36203,16 +36203,16 @@
         <v>330.5544743850547</v>
       </c>
       <c r="L21" t="n">
-        <v>135.6555811770227</v>
+        <v>506.4959264804819</v>
       </c>
       <c r="M21" t="n">
-        <v>643.5611206163853</v>
+        <v>177.8560568663855</v>
       </c>
       <c r="N21" t="n">
-        <v>197.1175642480075</v>
+        <v>268.0666578174607</v>
       </c>
       <c r="O21" t="n">
-        <v>527.8265180701111</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P21" t="n">
         <v>425.6468963259276</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.53389692681884</v>
+        <v>63.53389692681883</v>
       </c>
       <c r="K22" t="n">
         <v>182.778508490714</v>
@@ -36294,10 +36294,10 @@
         <v>256.275708206642</v>
       </c>
       <c r="P22" t="n">
-        <v>207.3701693746359</v>
+        <v>207.3701693746358</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.53358425624515</v>
+        <v>84.53358425624513</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36440,19 +36440,19 @@
         <v>330.5544743850547</v>
       </c>
       <c r="L24" t="n">
-        <v>506.4959264804819</v>
+        <v>135.6555811770227</v>
       </c>
       <c r="M24" t="n">
-        <v>567.2679190757759</v>
+        <v>643.5611206163853</v>
       </c>
       <c r="N24" t="n">
-        <v>197.1175642480075</v>
+        <v>676.459938591561</v>
       </c>
       <c r="O24" t="n">
-        <v>551.7421429471983</v>
+        <v>157.8798236704689</v>
       </c>
       <c r="P24" t="n">
-        <v>107.1841276859905</v>
+        <v>316.2512163820164</v>
       </c>
       <c r="Q24" t="n">
         <v>231.3036078562618</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.53389692681884</v>
+        <v>63.53389692681877</v>
       </c>
       <c r="K25" t="n">
-        <v>182.778508490714</v>
+        <v>182.7785084907139</v>
       </c>
       <c r="L25" t="n">
-        <v>267.0385244332149</v>
+        <v>267.0385244332148</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5891874059347</v>
+        <v>287.5891874059346</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1911469164723</v>
+        <v>288.1911469164722</v>
       </c>
       <c r="O25" t="n">
         <v>256.275708206642</v>
       </c>
       <c r="P25" t="n">
-        <v>207.3701693746359</v>
+        <v>207.3701693746358</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.53358425624515</v>
+        <v>84.53358425624508</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36674,16 +36674,16 @@
         <v>118.5697760906196</v>
       </c>
       <c r="K27" t="n">
-        <v>66.08923737247611</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L27" t="n">
         <v>506.4959264804819</v>
       </c>
       <c r="M27" t="n">
-        <v>177.8560568663855</v>
+        <v>248.8051504358388</v>
       </c>
       <c r="N27" t="n">
-        <v>532.5318948300394</v>
+        <v>197.1175642480075</v>
       </c>
       <c r="O27" t="n">
         <v>551.7421429471983</v>
@@ -36911,19 +36911,19 @@
         <v>118.5697760906195</v>
       </c>
       <c r="K30" t="n">
-        <v>66.08923737247608</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L30" t="n">
         <v>506.4959264804818</v>
       </c>
       <c r="M30" t="n">
-        <v>427.7903323815935</v>
+        <v>248.8051504358389</v>
       </c>
       <c r="N30" t="n">
-        <v>676.459938591561</v>
+        <v>197.1175642480074</v>
       </c>
       <c r="O30" t="n">
-        <v>157.8798236704688</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P30" t="n">
         <v>425.6468963259276</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>112.8762755916774</v>
+        <v>118.5697760906195</v>
       </c>
       <c r="K33" t="n">
-        <v>66.08923737247608</v>
+        <v>330.5544743850547</v>
       </c>
       <c r="L33" t="n">
         <v>506.4959264804818</v>
@@ -37163,7 +37163,7 @@
         <v>157.8798236704688</v>
       </c>
       <c r="P33" t="n">
-        <v>425.6468963259276</v>
+        <v>155.4881588144064</v>
       </c>
       <c r="Q33" t="n">
         <v>21.22632012041268</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.46751632641238</v>
+        <v>69.46751632641242</v>
       </c>
       <c r="K34" t="n">
-        <v>188.7121278903075</v>
+        <v>188.7121278903076</v>
       </c>
       <c r="L34" t="n">
-        <v>272.9721438328084</v>
+        <v>272.9721438328085</v>
       </c>
       <c r="M34" t="n">
-        <v>293.5228068055282</v>
+        <v>293.5228068055283</v>
       </c>
       <c r="N34" t="n">
-        <v>294.1247663160658</v>
+        <v>294.1247663160659</v>
       </c>
       <c r="O34" t="n">
-        <v>262.2093276062355</v>
+        <v>262.2093276062356</v>
       </c>
       <c r="P34" t="n">
         <v>213.3037887742294</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.46720365583869</v>
+        <v>90.46720365583873</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,28 +37303,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.3827117005885</v>
+        <v>97.57127307809878</v>
       </c>
       <c r="K35" t="n">
-        <v>404.3013003939203</v>
+        <v>404.3013003939204</v>
       </c>
       <c r="L35" t="n">
         <v>554.3761881902351</v>
       </c>
       <c r="M35" t="n">
-        <v>633.6246145739773</v>
+        <v>633.6246145739774</v>
       </c>
       <c r="N35" t="n">
         <v>629.0975277711027</v>
       </c>
       <c r="O35" t="n">
-        <v>548.3948777518024</v>
+        <v>548.3948777518025</v>
       </c>
       <c r="P35" t="n">
-        <v>429.9874083674255</v>
+        <v>429.9874083674256</v>
       </c>
       <c r="Q35" t="n">
-        <v>154.0894202589606</v>
+        <v>244.9008588814488</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37388,16 +37388,16 @@
         <v>330.5544743850546</v>
       </c>
       <c r="L36" t="n">
-        <v>506.4959264804817</v>
+        <v>506.4959264804818</v>
       </c>
       <c r="M36" t="n">
-        <v>642.6674697125696</v>
+        <v>248.8051504358399</v>
       </c>
       <c r="N36" t="n">
-        <v>197.1175642480073</v>
+        <v>197.1175642480074</v>
       </c>
       <c r="O36" t="n">
-        <v>157.8798236704687</v>
+        <v>551.7421429471983</v>
       </c>
       <c r="P36" t="n">
         <v>425.6468963259275</v>
@@ -37479,7 +37479,7 @@
         <v>262.2093276062355</v>
       </c>
       <c r="P37" t="n">
-        <v>213.3037887742293</v>
+        <v>213.3037887742294</v>
       </c>
       <c r="Q37" t="n">
         <v>90.46720365583866</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.3827117005885</v>
+        <v>188.3827117005884</v>
       </c>
       <c r="K38" t="n">
-        <v>404.3013003939204</v>
+        <v>313.4898617714313</v>
       </c>
       <c r="L38" t="n">
-        <v>554.3761881902351</v>
+        <v>554.376188190235</v>
       </c>
       <c r="M38" t="n">
-        <v>542.8131759514887</v>
+        <v>633.6246145739772</v>
       </c>
       <c r="N38" t="n">
-        <v>629.0975277711027</v>
+        <v>629.0975277711026</v>
       </c>
       <c r="O38" t="n">
-        <v>548.3948777518025</v>
+        <v>548.3948777518024</v>
       </c>
       <c r="P38" t="n">
-        <v>429.9874083674256</v>
+        <v>429.9874083674255</v>
       </c>
       <c r="Q38" t="n">
-        <v>244.9008588814488</v>
+        <v>244.9008588814487</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>118.5697760906195</v>
       </c>
       <c r="K39" t="n">
-        <v>250.8082574374244</v>
+        <v>330.5544743850546</v>
       </c>
       <c r="L39" t="n">
-        <v>506.4959264804818</v>
+        <v>506.4959264804817</v>
       </c>
       <c r="M39" t="n">
-        <v>177.8560568663854</v>
+        <v>248.8051504358403</v>
       </c>
       <c r="N39" t="n">
-        <v>676.4599385915609</v>
+        <v>197.1175642480073</v>
       </c>
       <c r="O39" t="n">
-        <v>551.7421429471983</v>
+        <v>551.7421429471981</v>
       </c>
       <c r="P39" t="n">
-        <v>425.6468963259275</v>
+        <v>425.6468963259274</v>
       </c>
       <c r="Q39" t="n">
-        <v>21.22632012041265</v>
+        <v>231.3036078562617</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.46751632641235</v>
+        <v>69.46751632641239</v>
       </c>
       <c r="K40" t="n">
         <v>188.7121278903075</v>
@@ -37719,7 +37719,7 @@
         <v>213.3037887742294</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.46720365583866</v>
+        <v>90.4672036558387</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.3827117005885</v>
+        <v>188.3827117005884</v>
       </c>
       <c r="K41" t="n">
-        <v>404.3013003939204</v>
+        <v>404.3013003939203</v>
       </c>
       <c r="L41" t="n">
-        <v>554.3761881902351</v>
+        <v>554.376188190235</v>
       </c>
       <c r="M41" t="n">
-        <v>542.8131759514887</v>
+        <v>633.6246145739772</v>
       </c>
       <c r="N41" t="n">
-        <v>629.0975277711027</v>
+        <v>538.2860891486137</v>
       </c>
       <c r="O41" t="n">
-        <v>548.3948777518025</v>
+        <v>548.3948777518024</v>
       </c>
       <c r="P41" t="n">
-        <v>429.9874083674256</v>
+        <v>429.9874083674255</v>
       </c>
       <c r="Q41" t="n">
-        <v>244.9008588814488</v>
+        <v>244.9008588814487</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.5697760906195</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>66.08923737247605</v>
+        <v>330.5544743850546</v>
       </c>
       <c r="L42" t="n">
-        <v>506.4959264804818</v>
+        <v>135.6555811770225</v>
       </c>
       <c r="M42" t="n">
-        <v>643.5611206163853</v>
+        <v>643.5611206163851</v>
       </c>
       <c r="N42" t="n">
-        <v>676.4599385915609</v>
+        <v>676.4599385915608</v>
       </c>
       <c r="O42" t="n">
-        <v>470.6490918114643</v>
+        <v>551.7421429471981</v>
       </c>
       <c r="P42" t="n">
-        <v>107.1841276859904</v>
+        <v>107.1841276859903</v>
       </c>
       <c r="Q42" t="n">
-        <v>21.22632012041265</v>
+        <v>165.0781533661794</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.46751632641235</v>
+        <v>69.46751632641238</v>
       </c>
       <c r="K43" t="n">
         <v>188.7121278903075</v>
@@ -37947,7 +37947,7 @@
         <v>293.5228068055281</v>
       </c>
       <c r="N43" t="n">
-        <v>294.1247663160658</v>
+        <v>294.1247663160657</v>
       </c>
       <c r="O43" t="n">
         <v>262.2093276062355</v>
@@ -37956,7 +37956,7 @@
         <v>213.3037887742294</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.46720365583866</v>
+        <v>90.46720365583869</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.3827117005885</v>
+        <v>188.3827117005884</v>
       </c>
       <c r="K44" t="n">
-        <v>404.3013003939204</v>
+        <v>404.3013003939203</v>
       </c>
       <c r="L44" t="n">
-        <v>554.3761881902351</v>
+        <v>554.376188190235</v>
       </c>
       <c r="M44" t="n">
-        <v>633.6246145739774</v>
+        <v>542.8131759514882</v>
       </c>
       <c r="N44" t="n">
-        <v>629.0975277711027</v>
+        <v>629.0975277711026</v>
       </c>
       <c r="O44" t="n">
-        <v>457.5834391293139</v>
+        <v>548.3948777518024</v>
       </c>
       <c r="P44" t="n">
-        <v>429.9874083674256</v>
+        <v>429.9874083674255</v>
       </c>
       <c r="Q44" t="n">
-        <v>244.9008588814488</v>
+        <v>244.9008588814487</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38099,22 +38099,22 @@
         <v>330.5544743850546</v>
       </c>
       <c r="L45" t="n">
-        <v>236.3371889689614</v>
+        <v>506.4959264804817</v>
       </c>
       <c r="M45" t="n">
-        <v>643.5611206163853</v>
+        <v>248.8051504358403</v>
       </c>
       <c r="N45" t="n">
-        <v>676.4599385915609</v>
+        <v>197.1175642480073</v>
       </c>
       <c r="O45" t="n">
-        <v>157.8798236704687</v>
+        <v>551.7421429471981</v>
       </c>
       <c r="P45" t="n">
-        <v>425.6468963259275</v>
+        <v>425.6468963259274</v>
       </c>
       <c r="Q45" t="n">
-        <v>21.22632012041265</v>
+        <v>231.3036078562617</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.46751632641239</v>
+        <v>69.46751632641235</v>
       </c>
       <c r="K46" t="n">
-        <v>188.7121278903075</v>
+        <v>188.7121278903074</v>
       </c>
       <c r="L46" t="n">
-        <v>272.9721438328084</v>
+        <v>272.9721438328083</v>
       </c>
       <c r="M46" t="n">
-        <v>293.5228068055282</v>
+        <v>293.5228068055281</v>
       </c>
       <c r="N46" t="n">
-        <v>294.1247663160658</v>
+        <v>294.1247663160657</v>
       </c>
       <c r="O46" t="n">
         <v>262.2093276062355</v>
       </c>
       <c r="P46" t="n">
-        <v>213.3037887742294</v>
+        <v>213.3037887742293</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.4672036558387</v>
+        <v>90.46720365583866</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
